--- a/output/DocSeminar_presentation.xlsx
+++ b/output/DocSeminar_presentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/090f83bee742c2dd/Github_repositories/steel_supply_chain_impacts/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="746" documentId="11_AD4DB114E441178AC67DF42CA697E0CA693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8231C96F-A826-40CD-84B1-BE4D9A8B4A0B}"/>
+  <xr:revisionPtr revIDLastSave="762" documentId="11_AD4DB114E441178AC67DF42CA697E0CA693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EBB213C-0477-4961-B92F-292C31E7BDC5}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -256,12 +256,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -343,9 +341,9 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -355,26 +353,21 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -3225,7 +3218,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{DDF3B2DD-29F0-4207-A435-5F21ADF2F6E9}" type="CELLRANGE">
+                    <a:fld id="{5B12E239-4C6B-4051-B6CC-81FF36197558}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr sz="1050" b="1">
@@ -3312,7 +3305,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1ADB91F5-2B2E-4385-BB2A-AEE5E9115962}" type="CELLRANGE">
+                    <a:fld id="{59D24BF5-9B93-48CD-A699-7B6DD7E0EE75}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3345,7 +3338,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{95DEE9E0-0F68-433A-80C2-3276DF5FC57C}" type="CELLRANGE">
+                    <a:fld id="{7CC5E723-39A9-4399-957F-33DEDEDFC450}" type="CELLRANGE">
                       <a:rPr lang="de-AT"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3385,7 +3378,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB4918A0-C28F-4A5D-8D52-11F68CF47F3A}" type="CELLRANGE">
+                    <a:fld id="{03A3CBA9-FC93-4BCA-9D7D-D30561307B68}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3452,7 +3445,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BF40E639-8571-48FF-AB11-5EEBB61D55D4}" type="CELLRANGE">
+                    <a:fld id="{D87B4B5F-EE4C-4C81-81D0-0ABAC90A2C9E}" type="CELLRANGE">
                       <a:rPr lang="de-AT"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3492,7 +3485,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF9813D6-0C58-48D0-B4DD-68DE7509C867}" type="CELLRANGE">
+                    <a:fld id="{AF7C7A32-DA02-4899-9BAF-44C099ED3B67}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3531,7 +3524,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{455C3D8E-72EA-465B-9260-67A35EEA7E1F}" type="CELLRANGE">
+                    <a:fld id="{66ABEA77-3764-46AD-A9B6-3641E5CA4DA6}" type="CELLRANGE">
                       <a:rPr lang="de-AT"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3565,7 +3558,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A6EEB213-C925-46D9-8485-958E965C98F1}" type="CELLRANGE">
+                    <a:fld id="{D6CE435C-353C-4305-8049-F722FB41EA1E}" type="CELLRANGE">
                       <a:rPr lang="de-AT"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3599,7 +3592,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7629A3A8-25B1-4B40-9E07-53F4A3A3BEB5}" type="CELLRANGE">
+                    <a:fld id="{EFB51825-ADE3-4128-89B1-78EB36CECA8D}" type="CELLRANGE">
                       <a:rPr lang="de-AT"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3633,7 +3626,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49C4F636-48A1-4A0F-A3EA-B0C2D7A4FE14}" type="CELLRANGE">
+                    <a:fld id="{1E144510-3BAB-4095-AC23-C220B084616F}" type="CELLRANGE">
                       <a:rPr lang="de-AT"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3679,7 +3672,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{4C253AE2-C1EE-4E4A-A5E4-5F081E44ECA2}" type="CELLRANGE">
+                    <a:fld id="{FF704863-F57F-41CD-B6D7-B8F918576B27}" type="CELLRANGE">
                       <a:rPr lang="de-AT"/>
                       <a:pPr>
                         <a:defRPr sz="1050" b="1">
@@ -3773,7 +3766,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{CB39B8F8-B927-4E0F-ADCD-6CCD67A90B7A}" type="CELLRANGE">
+                    <a:fld id="{5C12C07E-A081-421D-9AF2-2BF823298E0E}" type="CELLRANGE">
                       <a:rPr lang="de-AT"/>
                       <a:pPr>
                         <a:defRPr sz="1050" b="1">
@@ -3855,7 +3848,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A290374-CE12-4968-ADF7-5B51C4328827}" type="CELLRANGE">
+                    <a:fld id="{7E891EEB-7CCA-476B-8687-B9B375C344C4}" type="CELLRANGE">
                       <a:rPr lang="de-AT"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -14035,16 +14028,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>502624</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1108364</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>184964</xdr:rowOff>
+      <xdr:rowOff>46418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>1511905</xdr:colOff>
+      <xdr:colOff>1887681</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>189728</xdr:rowOff>
+      <xdr:rowOff>51182</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14219,16 +14212,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>106529</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>74076</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>525629</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>112176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>527914</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>56758</xdr:rowOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>299314</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>94858</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14255,16 +14248,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>329045</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>585355</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>103909</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>86590</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>280555</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>10390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14363,16 +14356,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>408214</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>759278</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>100692</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>84364</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14799,8 +14792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B221" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F222" sqref="F222"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S57" sqref="S57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14864,17 +14857,17 @@
       <c r="N1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -14888,18 +14881,18 @@
       <c r="C2">
         <v>2076881053.04006</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>1748309675.99352</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <f>VLOOKUP($A2,$AD$45:$AG$57,COLUMN(B2),FALSE)</f>
         <v>533123385.17688859</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f t="shared" ref="F2:G2" si="0">VLOOKUP($A2,$AD$45:$AG$57,COLUMN(C2),FALSE)</f>
         <v>2742.3506645429929</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f t="shared" si="0"/>
         <v>1435445.7269307154</v>
       </c>
@@ -14923,7 +14916,7 @@
         <f>E2/H2</f>
         <v>0.39077556874877301</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="4">
         <f>F2*1000000/H2</f>
         <v>2.0101231167899267</v>
       </c>
@@ -14931,20 +14924,20 @@
         <f>G2*1000/H2</f>
         <v>1.0521712908227223</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>1300536.5275129077</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>2311.4789023477479</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <f>(O2*1000000)/(P2*10^6)</f>
         <v>562.64261213544489</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="8">
         <f>(B2*1000)/(P2*1000000)</f>
         <v>648.6972468046464</v>
       </c>
@@ -14959,18 +14952,18 @@
       <c r="C3">
         <v>280167862.68127042</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>403165716.83603835</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f t="shared" ref="E3:E14" si="4">VLOOKUP($A3,$AD$45:$AG$57,COLUMN(B3),FALSE)</f>
         <v>224870907.45598131</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F14" si="5">VLOOKUP($A3,$AD$45:$AG$57,COLUMN(C3),FALSE)</f>
         <v>845.30508005474917</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G14" si="6">VLOOKUP($A3,$AD$45:$AG$57,COLUMN(D3),FALSE)</f>
         <v>483814.39045096288</v>
       </c>
@@ -14994,7 +14987,7 @@
         <f t="shared" ref="L3:L15" si="7">E3/H3</f>
         <v>0.3761982382158725</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="4">
         <f t="shared" ref="M3:M15" si="8">F3*1000000/H3</f>
         <v>1.4141548387435263</v>
       </c>
@@ -15002,20 +14995,20 @@
         <f t="shared" ref="N3:N15" si="9">G3*1000/H3</f>
         <v>0.80939826040755014</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <v>149992.47963309276</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="6">
         <v>322.66477888678321</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="6">
         <f>(O3*1000000)/(P3*10^6)</f>
         <v>464.85544579912835</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="8">
         <f>(B3*1000)/(P3*1000000)</f>
         <v>378.90947595501336</v>
       </c>
@@ -15030,18 +15023,18 @@
       <c r="C4">
         <v>110087441.593418</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>219367419.60647801</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f t="shared" si="4"/>
         <v>118105140.69235359</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f t="shared" si="5"/>
         <v>410.82504992488833</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f t="shared" si="6"/>
         <v>213095.00058392348</v>
       </c>
@@ -15065,7 +15058,7 @@
         <f t="shared" si="7"/>
         <v>0.37040152780044983</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="4">
         <f t="shared" si="8"/>
         <v>1.288430167042903</v>
       </c>
@@ -15073,20 +15066,20 @@
         <f t="shared" si="9"/>
         <v>0.66830887563586949</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="6">
         <v>43788.583897087512</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="6">
         <v>75.692879021502264</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="6">
         <f>(O4*1000000)/(P4*10^6)</f>
         <v>578.50334751632806</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="8">
         <f>(B4*1000)/(P4*1000000)</f>
         <v>749.81861878836844</v>
       </c>
@@ -15101,18 +15094,18 @@
       <c r="C5">
         <v>182657338.49922079</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>216952188.90829623</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <f t="shared" si="4"/>
         <v>118008695.79105043</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f t="shared" si="5"/>
         <v>396.11542916331297</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f t="shared" si="6"/>
         <v>205816.88479583059</v>
       </c>
@@ -15136,7 +15129,7 @@
         <f t="shared" si="7"/>
         <v>8.6671141381717276E-2</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="4">
         <f t="shared" si="8"/>
         <v>0.29092581808786311</v>
       </c>
@@ -15144,20 +15137,20 @@
         <f t="shared" si="9"/>
         <v>0.15116160890778083</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <v>274479.12959675252</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <v>502.67395108625749</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="6">
         <f>(O5*1000000)/(P5*10^6)</f>
         <v>546.03810084770566</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="8">
         <f>(B5*1000)/(P5*1000000)</f>
         <v>124.27120459943147</v>
       </c>
@@ -15172,18 +15165,18 @@
       <c r="C6">
         <v>121993408.591397</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>149716976.609954</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <f t="shared" si="4"/>
         <v>88313990.044299886</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f t="shared" si="5"/>
         <v>239.81953203839734</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f t="shared" si="6"/>
         <v>108421.35108227681</v>
       </c>
@@ -15207,7 +15200,7 @@
         <f t="shared" si="7"/>
         <v>0.69466482850317457</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="4">
         <f t="shared" si="8"/>
         <v>1.886385090421101</v>
       </c>
@@ -15215,17 +15208,17 @@
         <f t="shared" si="9"/>
         <v>0.85282636667046974</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <v>0</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="9"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -15237,18 +15230,18 @@
       <c r="C7">
         <v>100382052.930858</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>135657504.353383</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f t="shared" si="4"/>
         <v>66441209.649746105</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f t="shared" si="5"/>
         <v>299.67433745677357</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f t="shared" si="6"/>
         <v>161026.47407589611</v>
       </c>
@@ -15272,7 +15265,7 @@
         <f t="shared" si="7"/>
         <v>0.22072999445432998</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="4">
         <f t="shared" si="8"/>
         <v>0.99557360851258092</v>
       </c>
@@ -15280,20 +15273,20 @@
         <f t="shared" si="9"/>
         <v>0.534959747378842</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="6">
         <v>9762.5667948630235</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="6">
         <v>58.989461562156876</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="6">
         <f t="shared" ref="R7:R15" si="10">(O7*1000000)/(P7*10^6)</f>
         <v>165.49679444990795</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="8">
         <f t="shared" ref="S7:S15" si="11">(B7*1000)/(P7*1000000)</f>
         <v>471.51642451760659</v>
       </c>
@@ -15308,18 +15301,18 @@
       <c r="C8">
         <v>76340742.938735202</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>77570007.527964696</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <f t="shared" si="4"/>
         <v>46184159.416267917</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f t="shared" si="5"/>
         <v>140.33193472005573</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f t="shared" si="6"/>
         <v>74427.143871286447</v>
       </c>
@@ -15343,7 +15336,7 @@
         <f t="shared" si="7"/>
         <v>0.11015807561611164</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="4">
         <f t="shared" si="8"/>
         <v>0.33471857172747349</v>
       </c>
@@ -15351,20 +15344,20 @@
         <f t="shared" si="9"/>
         <v>0.17752300888638592</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>16741.402889109857</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <v>106.27504644365986</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="6">
         <f t="shared" si="10"/>
         <v>157.52901033061477</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="8">
         <f t="shared" si="11"/>
         <v>508.4000601087634</v>
       </c>
@@ -15379,18 +15372,18 @@
       <c r="C9">
         <v>96642086.214637205</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>72504328.738693893</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f t="shared" si="4"/>
         <v>36157519.397386052</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f t="shared" si="5"/>
         <v>105.5424295356173</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f t="shared" si="6"/>
         <v>66594.368497388306</v>
       </c>
@@ -15414,7 +15407,7 @@
         <f t="shared" si="7"/>
         <v>2.7914579997675514E-2</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="4">
         <f t="shared" si="8"/>
         <v>8.1481601656390429E-2</v>
       </c>
@@ -15422,20 +15415,20 @@
         <f t="shared" si="9"/>
         <v>5.1412648262298043E-2</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <v>114974.36132360158</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <v>160.00182970194976</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="6">
         <f t="shared" si="10"/>
         <v>718.58154083472039</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="8">
         <f t="shared" si="11"/>
         <v>818.8437609998997</v>
       </c>
@@ -15450,18 +15443,18 @@
       <c r="C10">
         <v>42555097.416720897</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>56634982.475124903</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <f t="shared" si="4"/>
         <v>28793759.762405291</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f t="shared" si="5"/>
         <v>104.55764920290689</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <f t="shared" si="6"/>
         <v>55115.545048559259</v>
       </c>
@@ -15485,7 +15478,7 @@
         <f t="shared" si="7"/>
         <v>2.7077724743123373E-2</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="4">
         <f t="shared" si="8"/>
         <v>9.8326278619609575E-2</v>
       </c>
@@ -15493,20 +15486,20 @@
         <f t="shared" si="9"/>
         <v>5.1830798416282811E-2</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <v>15585.987554156885</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="6">
         <v>43.8225435187871</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="6">
         <f t="shared" si="10"/>
         <v>355.66140855048815</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="8">
         <f t="shared" si="11"/>
         <v>803.77397502968358</v>
       </c>
@@ -15521,18 +15514,18 @@
       <c r="C11">
         <v>45823240.415834598</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>52368943.825850002</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <f t="shared" si="4"/>
         <v>25945423.527853757</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f t="shared" si="5"/>
         <v>152.97962226647357</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <f t="shared" si="6"/>
         <v>84659.138509200464</v>
       </c>
@@ -15556,7 +15549,7 @@
         <f t="shared" si="7"/>
         <v>0.18040259547609794</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="4">
         <f t="shared" si="8"/>
         <v>1.0636912857559291</v>
       </c>
@@ -15564,20 +15557,20 @@
         <f t="shared" si="9"/>
         <v>0.5886482562689398</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="6">
         <v>113301.4312821916</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <v>196.81816133197395</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="6">
         <f t="shared" si="10"/>
         <v>575.66553063711251</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="8">
         <f t="shared" si="11"/>
         <v>522.09612826223236</v>
       </c>
@@ -15592,18 +15585,18 @@
       <c r="C12">
         <v>34582450.274862498</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>32116238.409410201</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f t="shared" si="4"/>
         <v>16196162.446125424</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f t="shared" si="5"/>
         <v>68.60698122906814</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <f t="shared" si="6"/>
         <v>33550.769414347844</v>
       </c>
@@ -15627,7 +15620,7 @@
         <f t="shared" si="7"/>
         <v>0.45571107212116502</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="4">
         <f t="shared" si="8"/>
         <v>1.9303931455920129</v>
       </c>
@@ -15635,20 +15628,20 @@
         <f t="shared" si="9"/>
         <v>0.94401727268178359</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="6">
         <v>77706.777908506483</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="6">
         <v>200.82272480051085</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="6">
         <f t="shared" si="10"/>
         <v>386.94215500609926</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="8">
         <f t="shared" si="11"/>
         <v>216.28154902917893</v>
       </c>
@@ -15663,18 +15656,18 @@
       <c r="C13">
         <v>30262998.2578777</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>28739886.269499</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <f t="shared" si="4"/>
         <v>20093592.188368369</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f t="shared" si="5"/>
         <v>49.033824152378983</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <f t="shared" si="6"/>
         <v>37655.081777181367</v>
       </c>
@@ -15698,7 +15691,7 @@
         <f t="shared" si="7"/>
         <v>9.750483862354016E-2</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="4">
         <f t="shared" si="8"/>
         <v>0.23793829725679258</v>
       </c>
@@ -15706,20 +15699,20 @@
         <f t="shared" si="9"/>
         <v>0.18272256337349366</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="6">
         <v>548984.46099454572</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="6">
         <v>571.12400071943603</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="6">
         <f t="shared" si="10"/>
         <v>961.23514386192574</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="8">
         <f t="shared" si="11"/>
         <v>597.42245041393767</v>
       </c>
@@ -15734,18 +15727,18 @@
       <c r="C14">
         <v>15878806.847837901</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>21150708.0519794</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f t="shared" si="4"/>
         <v>11098045.587647246</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f t="shared" si="5"/>
         <v>37.654111757784797</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <f t="shared" si="6"/>
         <v>19608.945205914191</v>
       </c>
@@ -15769,7 +15762,7 @@
         <f t="shared" si="7"/>
         <v>0.4724435023086227</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="4">
         <f t="shared" si="8"/>
         <v>1.6029345252436875</v>
       </c>
@@ -15777,20 +15770,20 @@
         <f t="shared" si="9"/>
         <v>0.83475227025301346</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="6">
         <v>313377.11085666844</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="6">
         <v>1042.4323666246351</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="6">
         <f t="shared" si="10"/>
         <v>300.62104831930168</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="8">
         <f t="shared" si="11"/>
         <v>707.80687901041722</v>
       </c>
@@ -15811,15 +15804,15 @@
         <f t="shared" si="12"/>
         <v>3214254577.6061912</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <f>SUM(E2:E14)</f>
         <v>1333331991.1363742</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <f t="shared" ref="F15:G15" si="13">SUM(F2:F14)</f>
         <v>5592.796646045399</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <f t="shared" si="13"/>
         <v>2979230.8202434839</v>
       </c>
@@ -15843,7 +15836,7 @@
         <f t="shared" si="7"/>
         <v>0.18371963240478414</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="4">
         <f t="shared" si="8"/>
         <v>0.77063068369824794</v>
       </c>
@@ -15862,34 +15855,34 @@
       <c r="Q15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="6">
         <f t="shared" si="10"/>
         <v>532.690710710904</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="8">
         <f t="shared" si="11"/>
         <v>574.71329338882606</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -15904,615 +15897,615 @@
       <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>0.46650007422208761</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>0.41329571744436067</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>0.43653432915500601</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>0.22955269463076083</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>0.18638839074575086</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>0.10518725461864582</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>0.10615285489663134</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>0.10211778415424257</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>0.18427053629556595</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>0.19779437625052007</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>0.29819810765564592</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>0.27400787993078218</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>1</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>1</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>1</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="C25" s="8"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
+      <c r="C25" s="7"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="C26" s="8"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
+      <c r="C26" s="7"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="C27" s="8"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
+      <c r="C27" s="7"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="C28" s="8"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
+      <c r="C28" s="7"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="C29" s="8"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
+      <c r="C29" s="7"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="C30" s="8"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
+      <c r="C30" s="7"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="C31" s="8"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
+      <c r="C31" s="7"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="C32" s="8"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
+      <c r="C32" s="7"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
     </row>
     <row r="33" spans="9:33" x14ac:dyDescent="0.25">
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
     </row>
     <row r="34" spans="9:33" x14ac:dyDescent="0.25">
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
     </row>
     <row r="35" spans="9:33" x14ac:dyDescent="0.25">
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
     </row>
     <row r="36" spans="9:33" x14ac:dyDescent="0.25">
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
     </row>
     <row r="37" spans="9:33" x14ac:dyDescent="0.25">
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
     </row>
     <row r="38" spans="9:33" x14ac:dyDescent="0.25">
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
     </row>
     <row r="39" spans="9:33" x14ac:dyDescent="0.25">
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
     </row>
     <row r="40" spans="9:33" x14ac:dyDescent="0.25">
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
     </row>
     <row r="41" spans="9:33" x14ac:dyDescent="0.25">
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="11"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
     </row>
     <row r="42" spans="9:33" x14ac:dyDescent="0.25">
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
     </row>
     <row r="43" spans="9:33" x14ac:dyDescent="0.25">
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="11"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
     </row>
     <row r="44" spans="9:33" x14ac:dyDescent="0.25">
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="11"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
       <c r="AD44" s="1" t="s">
         <v>0</v>
       </c>
@@ -16527,226 +16520,226 @@
       </c>
     </row>
     <row r="45" spans="9:33" x14ac:dyDescent="0.25">
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="11"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
       <c r="AD45" s="2" t="s">
         <v>4</v>
       </c>
       <c r="AE45">
         <v>28793759.762405291</v>
       </c>
-      <c r="AF45" s="9">
+      <c r="AF45" s="8">
         <v>104.55764920290689</v>
       </c>
-      <c r="AG45" s="9">
+      <c r="AG45" s="8">
         <v>55115.545048559259</v>
       </c>
     </row>
     <row r="46" spans="9:33" x14ac:dyDescent="0.25">
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11"/>
-      <c r="Z46" s="11"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
       <c r="AD46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AE46">
         <v>118008695.79105043</v>
       </c>
-      <c r="AF46" s="9">
+      <c r="AF46" s="8">
         <v>396.11542916331297</v>
       </c>
-      <c r="AG46" s="9">
+      <c r="AG46" s="8">
         <v>205816.88479583059</v>
       </c>
     </row>
     <row r="47" spans="9:33" x14ac:dyDescent="0.25">
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="11"/>
-      <c r="Z47" s="11"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
       <c r="AD47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="AE47">
         <v>11098045.587647246</v>
       </c>
-      <c r="AF47" s="9">
+      <c r="AF47" s="8">
         <v>37.654111757784797</v>
       </c>
-      <c r="AG47" s="9">
+      <c r="AG47" s="8">
         <v>19608.945205914191</v>
       </c>
     </row>
     <row r="48" spans="9:33" x14ac:dyDescent="0.25">
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="11"/>
-      <c r="Z48" s="11"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
       <c r="AD48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AE48">
         <v>20093592.188368369</v>
       </c>
-      <c r="AF48" s="9">
+      <c r="AF48" s="8">
         <v>49.033824152378983</v>
       </c>
-      <c r="AG48" s="9">
+      <c r="AG48" s="8">
         <v>37655.081777181367</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11"/>
-      <c r="Z49" s="11"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
       <c r="AD49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="AE49">
         <v>16196162.446125424</v>
       </c>
-      <c r="AF49" s="9">
+      <c r="AF49" s="8">
         <v>68.60698122906814</v>
       </c>
-      <c r="AG49" s="9">
+      <c r="AG49" s="8">
         <v>33550.769414347844</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="11"/>
-      <c r="Z50" s="11"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
       <c r="AD50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AE50">
         <v>533123385.17688859</v>
       </c>
-      <c r="AF50" s="9">
+      <c r="AF50" s="8">
         <v>2742.3506645429929</v>
       </c>
-      <c r="AG50" s="9">
+      <c r="AG50" s="8">
         <v>1435445.7269307154</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11"/>
-      <c r="Z51" s="11"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
       <c r="AD51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="AE51">
         <v>224870907.45598131</v>
       </c>
-      <c r="AF51" s="9">
+      <c r="AF51" s="8">
         <v>845.30508005474917</v>
       </c>
-      <c r="AG51" s="9">
+      <c r="AG51" s="8">
         <v>483814.39045096288</v>
       </c>
     </row>
@@ -16757,10 +16750,10 @@
       <c r="AE52">
         <v>36157519.397386052</v>
       </c>
-      <c r="AF52" s="9">
+      <c r="AF52" s="8">
         <v>105.5424295356173</v>
       </c>
-      <c r="AG52" s="9">
+      <c r="AG52" s="8">
         <v>66594.368497388306</v>
       </c>
     </row>
@@ -16771,10 +16764,10 @@
       <c r="AE53">
         <v>88313990.044299886</v>
       </c>
-      <c r="AF53" s="9">
+      <c r="AF53" s="8">
         <v>239.81953203839734</v>
       </c>
-      <c r="AG53" s="9">
+      <c r="AG53" s="8">
         <v>108421.35108227681</v>
       </c>
     </row>
@@ -16785,10 +16778,10 @@
       <c r="AE54">
         <v>66441209.649746105</v>
       </c>
-      <c r="AF54" s="9">
+      <c r="AF54" s="8">
         <v>299.67433745677357</v>
       </c>
-      <c r="AG54" s="9">
+      <c r="AG54" s="8">
         <v>161026.47407589611</v>
       </c>
     </row>
@@ -16799,10 +16792,10 @@
       <c r="AE55">
         <v>25945423.527853757</v>
       </c>
-      <c r="AF55" s="9">
+      <c r="AF55" s="8">
         <v>152.97962226647357</v>
       </c>
-      <c r="AG55" s="9">
+      <c r="AG55" s="8">
         <v>84659.138509200464</v>
       </c>
     </row>
@@ -16813,10 +16806,10 @@
       <c r="AE56">
         <v>46184159.416267917</v>
       </c>
-      <c r="AF56" s="9">
+      <c r="AF56" s="8">
         <v>140.33193472005573</v>
       </c>
-      <c r="AG56" s="9">
+      <c r="AG56" s="8">
         <v>74427.143871286447</v>
       </c>
     </row>
@@ -16845,10 +16838,10 @@
       <c r="AE57">
         <v>118105140.69235359</v>
       </c>
-      <c r="AF57" s="9">
+      <c r="AF57" s="8">
         <v>410.82504992488833</v>
       </c>
-      <c r="AG57" s="9">
+      <c r="AG57" s="8">
         <v>213095.00058392348</v>
       </c>
     </row>
@@ -17150,13 +17143,13 @@
       <c r="A85" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="12">
+      <c r="B85" s="11">
         <v>1748.3096759935149</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="8">
         <v>2742.3506645429929</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="8">
         <v>1435.4457269307154</v>
       </c>
     </row>
@@ -17164,13 +17157,13 @@
       <c r="A86" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="12">
+      <c r="B86" s="11">
         <v>403.16571683603456</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="8">
         <v>845.30508005474917</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D86" s="8">
         <v>483.81439045096289</v>
       </c>
     </row>
@@ -17178,13 +17171,13 @@
       <c r="A87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="12">
+      <c r="B87" s="11">
         <v>219.36741960647777</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="8">
         <v>410.82504992488833</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="8">
         <v>213.09500058392348</v>
       </c>
     </row>
@@ -17192,13 +17185,13 @@
       <c r="A88" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B88" s="12">
+      <c r="B88" s="11">
         <v>216.9521889082956</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="8">
         <v>396.11542916331297</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="8">
         <v>205.81688479583059</v>
       </c>
     </row>
@@ -17206,13 +17199,13 @@
       <c r="A89" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="12">
+      <c r="B89" s="11">
         <v>149.71697660995454</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="8">
         <v>239.81953203839734</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="8">
         <v>108.42135108227681</v>
       </c>
     </row>
@@ -17220,13 +17213,13 @@
       <c r="A90" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B90" s="12">
+      <c r="B90" s="11">
         <v>135.65750435338265</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="8">
         <v>299.67433745677357</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="8">
         <v>161.02647407589612</v>
       </c>
     </row>
@@ -17234,13 +17227,13 @@
       <c r="A91" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="12">
+      <c r="B91" s="11">
         <v>77.570007527964762</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="8">
         <v>140.33193472005573</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="8">
         <v>74.427143871286447</v>
       </c>
     </row>
@@ -17248,13 +17241,13 @@
       <c r="A92" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="12">
+      <c r="B92" s="11">
         <v>72.504328738693914</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="8">
         <v>105.5424295356173</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="8">
         <v>66.594368497388302</v>
       </c>
     </row>
@@ -17262,13 +17255,13 @@
       <c r="A93" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="12">
+      <c r="B93" s="11">
         <v>56.63498247512495</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="8">
         <v>104.55764920290689</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="8">
         <v>55.115545048559262</v>
       </c>
     </row>
@@ -17276,13 +17269,13 @@
       <c r="A94" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="12">
+      <c r="B94" s="11">
         <v>52.368943825849918</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="8">
         <v>152.97962226647357</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D94" s="8">
         <v>84.65913850920046</v>
       </c>
     </row>
@@ -17290,13 +17283,13 @@
       <c r="A95" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B95" s="12">
+      <c r="B95" s="11">
         <v>32.116238409410236</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C95" s="8">
         <v>68.60698122906814</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D95" s="8">
         <v>33.55076941434784</v>
       </c>
     </row>
@@ -17304,13 +17297,13 @@
       <c r="A96" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B96" s="12">
+      <c r="B96" s="11">
         <v>28.73988626949896</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="8">
         <v>49.033824152378983</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D96" s="8">
         <v>37.655081777181366</v>
       </c>
     </row>
@@ -17318,13 +17311,13 @@
       <c r="A97" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="12">
+      <c r="B97" s="11">
         <v>21.150708051979414</v>
       </c>
-      <c r="C97" s="9">
+      <c r="C97" s="8">
         <v>37.654111757784797</v>
       </c>
-      <c r="D97" s="9">
+      <c r="D97" s="8">
         <v>19.608945205914193</v>
       </c>
     </row>
@@ -17346,15 +17339,15 @@
       <c r="A101" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101" s="7">
         <f>B85/SUM(B$85:B$97)</f>
         <v>0.5439238348368689</v>
       </c>
-      <c r="C101" s="8">
+      <c r="C101" s="7">
         <f t="shared" ref="C101:D101" si="15">C85/SUM(C$85:C$97)</f>
         <v>0.49033620174301829</v>
       </c>
-      <c r="D101" s="8">
+      <c r="D101" s="7">
         <f t="shared" si="15"/>
         <v>0.48181756082041366</v>
       </c>
@@ -17363,15 +17356,15 @@
       <c r="A102" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B102" s="8">
+      <c r="B102" s="7">
         <f t="shared" ref="B102:D102" si="16">B86/SUM(B$85:B$97)</f>
         <v>0.12543054916835258</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C102" s="7">
         <f t="shared" si="16"/>
         <v>0.15114175135483507</v>
       </c>
-      <c r="D102" s="8">
+      <c r="D102" s="7">
         <f t="shared" si="16"/>
         <v>0.16239573891472506</v>
       </c>
@@ -17380,15 +17373,15 @@
       <c r="A103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B103" s="8">
+      <c r="B103" s="7">
         <f t="shared" ref="B103:D103" si="17">B87/SUM(B$85:B$97)</f>
         <v>6.8248302774403066E-2</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C103" s="7">
         <f t="shared" si="17"/>
         <v>7.3456103614169113E-2</v>
       </c>
-      <c r="D103" s="8">
+      <c r="D103" s="7">
         <f t="shared" si="17"/>
         <v>7.152685154032741E-2</v>
       </c>
@@ -17397,15 +17390,15 @@
       <c r="A104" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B104" s="8">
+      <c r="B104" s="7">
         <f t="shared" ref="B104:D104" si="18">B88/SUM(B$85:B$97)</f>
         <v>6.7496890389395006E-2</v>
       </c>
-      <c r="C104" s="8">
+      <c r="C104" s="7">
         <f t="shared" si="18"/>
         <v>7.0826002487217474E-2</v>
       </c>
-      <c r="D104" s="8">
+      <c r="D104" s="7">
         <f t="shared" si="18"/>
         <v>6.9083900246107763E-2</v>
       </c>
@@ -17414,15 +17407,15 @@
       <c r="A105" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="8">
+      <c r="B105" s="7">
         <f t="shared" ref="B105:D105" si="19">B89/SUM(B$85:B$97)</f>
         <v>4.6579066155194325E-2</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C105" s="7">
         <f t="shared" si="19"/>
         <v>4.2880073640433704E-2</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D105" s="7">
         <f t="shared" si="19"/>
         <v>3.6392397106517538E-2</v>
       </c>
@@ -17443,15 +17436,15 @@
       <c r="A106" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B106" s="8">
+      <c r="B106" s="7">
         <f t="shared" ref="B106:D106" si="20">B90/SUM(B$85:B$97)</f>
         <v>4.2204965748050251E-2</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="7">
         <f t="shared" si="20"/>
         <v>5.3582198034800674E-2</v>
       </c>
-      <c r="D106" s="8">
+      <c r="D106" s="7">
         <f t="shared" si="20"/>
         <v>5.4049680535573921E-2</v>
       </c>
@@ -17472,15 +17465,15 @@
       <c r="A107" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B107" s="8">
+      <c r="B107" s="7">
         <f t="shared" ref="B107:D107" si="21">B91/SUM(B$85:B$97)</f>
         <v>2.4133125007707097E-2</v>
       </c>
-      <c r="C107" s="8">
+      <c r="C107" s="7">
         <f t="shared" si="21"/>
         <v>2.5091549648829588E-2</v>
       </c>
-      <c r="D107" s="8">
+      <c r="D107" s="7">
         <f t="shared" si="21"/>
         <v>2.4981999838872421E-2</v>
       </c>
@@ -17501,15 +17494,15 @@
       <c r="A108" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B108" s="8">
+      <c r="B108" s="7">
         <f t="shared" ref="B108:D108" si="22">B92/SUM(B$85:B$97)</f>
         <v>2.2557120784344204E-2</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="7">
         <f t="shared" si="22"/>
         <v>1.8871136609310678E-2</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D108" s="7">
         <f t="shared" si="22"/>
         <v>2.2352873112377963E-2</v>
       </c>
@@ -17530,15 +17523,15 @@
       <c r="A109" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B109" s="8">
+      <c r="B109" s="7">
         <f t="shared" ref="B109:D109" si="23">B93/SUM(B$85:B$97)</f>
         <v>1.7619943009400296E-2</v>
       </c>
-      <c r="C109" s="8">
+      <c r="C109" s="7">
         <f t="shared" si="23"/>
         <v>1.8695056484279358E-2</v>
       </c>
-      <c r="D109" s="8">
+      <c r="D109" s="7">
         <f t="shared" si="23"/>
         <v>1.8499924434876396E-2</v>
       </c>
@@ -17559,15 +17552,15 @@
       <c r="A110" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B110" s="8">
+      <c r="B110" s="7">
         <f t="shared" ref="B110:D110" si="24">B94/SUM(B$85:B$97)</f>
         <v>1.6292718128397821E-2</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="7">
         <f t="shared" si="24"/>
         <v>2.7352974182360747E-2</v>
       </c>
-      <c r="D110" s="8">
+      <c r="D110" s="7">
         <f t="shared" si="24"/>
         <v>2.8416441564028103E-2</v>
       </c>
@@ -17588,15 +17581,15 @@
       <c r="A111" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="8">
+      <c r="B111" s="7">
         <f t="shared" ref="B111:D111" si="25">B95/SUM(B$85:B$97)</f>
         <v>9.991815406646733E-3</v>
       </c>
-      <c r="C111" s="8">
+      <c r="C111" s="7">
         <f t="shared" si="25"/>
         <v>1.2267025885444866E-2</v>
       </c>
-      <c r="D111" s="8">
+      <c r="D111" s="7">
         <f t="shared" si="25"/>
         <v>1.1261554219422931E-2</v>
       </c>
@@ -17617,15 +17610,15 @@
       <c r="A112" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B112" s="8">
+      <c r="B112" s="7">
         <f t="shared" ref="B112:D112" si="26">B96/SUM(B$85:B$97)</f>
         <v>8.9413845654077E-3</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C112" s="7">
         <f t="shared" si="26"/>
         <v>8.7673175435495632E-3</v>
       </c>
-      <c r="D112" s="8">
+      <c r="D112" s="7">
         <f t="shared" si="26"/>
         <v>1.2639195835824475E-2</v>
       </c>
@@ -17646,15 +17639,15 @@
       <c r="A113" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="8">
+      <c r="B113" s="7">
         <f t="shared" ref="B113:D113" si="27">B97/SUM(B$85:B$97)</f>
         <v>6.5802840258320228E-3</v>
       </c>
-      <c r="C113" s="8">
+      <c r="C113" s="7">
         <f t="shared" si="27"/>
         <v>6.7326087717509949E-3</v>
       </c>
-      <c r="D113" s="8">
+      <c r="D113" s="7">
         <f t="shared" si="27"/>
         <v>6.5818818309323259E-3</v>
       </c>
@@ -17768,10 +17761,10 @@
       <c r="C133">
         <v>2076881053.04006</v>
       </c>
-      <c r="D133" s="7">
+      <c r="D133" s="6">
         <v>1748309675.99352</v>
       </c>
-      <c r="E133" s="7">
+      <c r="E133" s="6">
         <f>VLOOKUP($A133,$AD$45:$AG$57,COLUMN(B133),FALSE)</f>
         <v>533123385.17688859</v>
       </c>
@@ -17786,10 +17779,10 @@
       <c r="C134">
         <v>280167862.68127042</v>
       </c>
-      <c r="D134" s="7">
+      <c r="D134" s="6">
         <v>403165716.83603835</v>
       </c>
-      <c r="E134" s="7">
+      <c r="E134" s="6">
         <f t="shared" ref="E134:E145" si="28">VLOOKUP($A134,$AD$45:$AG$57,COLUMN(B134),FALSE)</f>
         <v>224870907.45598131</v>
       </c>
@@ -17804,10 +17797,10 @@
       <c r="C135">
         <v>110087441.593418</v>
       </c>
-      <c r="D135" s="7">
+      <c r="D135" s="6">
         <v>219367419.60647801</v>
       </c>
-      <c r="E135" s="7">
+      <c r="E135" s="6">
         <f t="shared" si="28"/>
         <v>118105140.69235359</v>
       </c>
@@ -17822,10 +17815,10 @@
       <c r="C136">
         <v>182657338.49922079</v>
       </c>
-      <c r="D136" s="7">
+      <c r="D136" s="6">
         <v>216952188.90829623</v>
       </c>
-      <c r="E136" s="7">
+      <c r="E136" s="6">
         <f t="shared" si="28"/>
         <v>118008695.79105043</v>
       </c>
@@ -17840,10 +17833,10 @@
       <c r="C137">
         <v>121993408.591397</v>
       </c>
-      <c r="D137" s="7">
+      <c r="D137" s="6">
         <v>149716976.609954</v>
       </c>
-      <c r="E137" s="7">
+      <c r="E137" s="6">
         <f t="shared" si="28"/>
         <v>88313990.044299886</v>
       </c>
@@ -17858,10 +17851,10 @@
       <c r="C138">
         <v>100382052.930858</v>
       </c>
-      <c r="D138" s="7">
+      <c r="D138" s="6">
         <v>135657504.353383</v>
       </c>
-      <c r="E138" s="7">
+      <c r="E138" s="6">
         <f t="shared" si="28"/>
         <v>66441209.649746105</v>
       </c>
@@ -17876,10 +17869,10 @@
       <c r="C139">
         <v>76340742.938735202</v>
       </c>
-      <c r="D139" s="7">
+      <c r="D139" s="6">
         <v>77570007.527964696</v>
       </c>
-      <c r="E139" s="7">
+      <c r="E139" s="6">
         <f t="shared" si="28"/>
         <v>46184159.416267917</v>
       </c>
@@ -17894,10 +17887,10 @@
       <c r="C140">
         <v>96642086.214637205</v>
       </c>
-      <c r="D140" s="7">
+      <c r="D140" s="6">
         <v>72504328.738693893</v>
       </c>
-      <c r="E140" s="7">
+      <c r="E140" s="6">
         <f t="shared" si="28"/>
         <v>36157519.397386052</v>
       </c>
@@ -17912,10 +17905,10 @@
       <c r="C141">
         <v>42555097.416720897</v>
       </c>
-      <c r="D141" s="7">
+      <c r="D141" s="6">
         <v>56634982.475124903</v>
       </c>
-      <c r="E141" s="7">
+      <c r="E141" s="6">
         <f t="shared" si="28"/>
         <v>28793759.762405291</v>
       </c>
@@ -17930,10 +17923,10 @@
       <c r="C142">
         <v>45823240.415834598</v>
       </c>
-      <c r="D142" s="7">
+      <c r="D142" s="6">
         <v>52368943.825850002</v>
       </c>
-      <c r="E142" s="7">
+      <c r="E142" s="6">
         <f t="shared" si="28"/>
         <v>25945423.527853757</v>
       </c>
@@ -17948,10 +17941,10 @@
       <c r="C143">
         <v>34582450.274862498</v>
       </c>
-      <c r="D143" s="7">
+      <c r="D143" s="6">
         <v>32116238.409410201</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E143" s="6">
         <f t="shared" si="28"/>
         <v>16196162.446125424</v>
       </c>
@@ -17966,10 +17959,10 @@
       <c r="C144">
         <v>30262998.2578777</v>
       </c>
-      <c r="D144" s="7">
+      <c r="D144" s="6">
         <v>28739886.269499</v>
       </c>
-      <c r="E144" s="7">
+      <c r="E144" s="6">
         <f t="shared" si="28"/>
         <v>20093592.188368369</v>
       </c>
@@ -17984,10 +17977,10 @@
       <c r="C145">
         <v>15878806.847837901</v>
       </c>
-      <c r="D145" s="7">
+      <c r="D145" s="6">
         <v>21150708.0519794</v>
       </c>
-      <c r="E145" s="7">
+      <c r="E145" s="6">
         <f t="shared" si="28"/>
         <v>11098045.587647246</v>
       </c>
@@ -18010,7 +18003,7 @@
       <c r="B167" s="4">
         <v>1.0521712908227223</v>
       </c>
-      <c r="C167" s="7">
+      <c r="C167" s="6">
         <f>B167*1000</f>
         <v>1052.1712908227223</v>
       </c>
@@ -18024,7 +18017,7 @@
       <c r="B168" s="4">
         <v>0.94401727268178359</v>
       </c>
-      <c r="C168" s="7">
+      <c r="C168" s="6">
         <f t="shared" ref="C168:C179" si="29">B168*1000</f>
         <v>944.01727268178354</v>
       </c>
@@ -18041,7 +18034,7 @@
       <c r="B169" s="4">
         <v>0.85282636667046974</v>
       </c>
-      <c r="C169" s="7">
+      <c r="C169" s="6">
         <f t="shared" si="29"/>
         <v>852.82636667046972</v>
       </c>
@@ -18058,7 +18051,7 @@
       <c r="B170" s="4">
         <v>0.83475227025301346</v>
       </c>
-      <c r="C170" s="7">
+      <c r="C170" s="6">
         <f t="shared" si="29"/>
         <v>834.75227025301342</v>
       </c>
@@ -18075,7 +18068,7 @@
       <c r="B171" s="4">
         <v>0.80939826040755014</v>
       </c>
-      <c r="C171" s="7">
+      <c r="C171" s="6">
         <f t="shared" si="29"/>
         <v>809.3982604075502</v>
       </c>
@@ -18092,7 +18085,7 @@
       <c r="B172" s="4">
         <v>0.66830887563586949</v>
       </c>
-      <c r="C172" s="7">
+      <c r="C172" s="6">
         <f t="shared" si="29"/>
         <v>668.30887563586953</v>
       </c>
@@ -18109,7 +18102,7 @@
       <c r="B173" s="4">
         <v>0.5886482562689398</v>
       </c>
-      <c r="C173" s="7">
+      <c r="C173" s="6">
         <f t="shared" si="29"/>
         <v>588.6482562689398</v>
       </c>
@@ -18126,7 +18119,7 @@
       <c r="B174" s="4">
         <v>0.534959747378842</v>
       </c>
-      <c r="C174" s="7">
+      <c r="C174" s="6">
         <f t="shared" si="29"/>
         <v>534.95974737884205</v>
       </c>
@@ -18143,7 +18136,7 @@
       <c r="B175" s="4">
         <v>0.18272256337349366</v>
       </c>
-      <c r="C175" s="7">
+      <c r="C175" s="6">
         <f t="shared" si="29"/>
         <v>182.72256337349367</v>
       </c>
@@ -18160,7 +18153,7 @@
       <c r="B176" s="4">
         <v>0.17752300888638592</v>
       </c>
-      <c r="C176" s="7">
+      <c r="C176" s="6">
         <f t="shared" si="29"/>
         <v>177.52300888638592</v>
       </c>
@@ -18177,7 +18170,7 @@
       <c r="B177" s="4">
         <v>0.15116160890778083</v>
       </c>
-      <c r="C177" s="7">
+      <c r="C177" s="6">
         <f t="shared" si="29"/>
         <v>151.16160890778082</v>
       </c>
@@ -18194,7 +18187,7 @@
       <c r="B178" s="4">
         <v>5.1830798416282811E-2</v>
       </c>
-      <c r="C178" s="7">
+      <c r="C178" s="6">
         <f t="shared" si="29"/>
         <v>51.830798416282811</v>
       </c>
@@ -18211,7 +18204,7 @@
       <c r="B179" s="4">
         <v>5.1412648262298043E-2</v>
       </c>
-      <c r="C179" s="7">
+      <c r="C179" s="6">
         <f t="shared" si="29"/>
         <v>51.412648262298042</v>
       </c>
@@ -18227,295 +18220,295 @@
       <c r="E180" s="4"/>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E183" s="15">
+      <c r="E183" s="13">
         <f>C167-C168</f>
         <v>108.15401814093877</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A188" s="16" t="s">
+      <c r="A188" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B188" s="16" t="s">
+      <c r="B188" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C188" s="16" t="s">
+      <c r="C188" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D188" s="16" t="s">
+      <c r="D188" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E188" s="16" t="s">
+      <c r="E188" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F188" s="16" t="s">
+      <c r="F188" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G188" s="16" t="s">
+      <c r="G188" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H188" s="16" t="s">
+      <c r="H188" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I188" s="16" t="s">
+      <c r="I188" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J188" s="16" t="s">
+      <c r="J188" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="K188" s="16" t="s">
+      <c r="K188" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="L188" s="16" t="s">
+      <c r="L188" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M188" s="16" t="s">
+      <c r="M188" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A189" s="16" t="s">
+      <c r="A189" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B189" s="17">
+      <c r="B189" s="15">
         <v>153.28238346508599</v>
       </c>
-      <c r="C189" s="17">
+      <c r="C189" s="15">
         <v>545.96283465174804</v>
       </c>
-      <c r="D189" s="17">
+      <c r="D189" s="15">
         <v>178.25943617869902</v>
       </c>
-      <c r="E189" s="17">
+      <c r="E189" s="15">
         <v>-35.184274724838097</v>
       </c>
-      <c r="F189" s="17">
+      <c r="F189" s="15">
         <v>-45.287481828954299</v>
       </c>
-      <c r="G189" s="17">
+      <c r="G189" s="15">
         <v>-616.88614937924297</v>
       </c>
-      <c r="H189" s="17">
+      <c r="H189" s="15">
         <v>-436.75208334853102</v>
       </c>
-      <c r="I189" s="17">
+      <c r="I189" s="15">
         <v>-689.45898213886699</v>
       </c>
-      <c r="J189" s="17">
+      <c r="J189" s="15">
         <v>-622.35892521989399</v>
       </c>
-      <c r="K189" s="17">
+      <c r="K189" s="15">
         <v>-699.35503705151393</v>
       </c>
-      <c r="L189" s="17">
+      <c r="L189" s="15">
         <v>-886.96845887391908</v>
       </c>
-      <c r="M189" s="17">
+      <c r="M189" s="15">
         <v>-874.86756064940209</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190" s="16" t="s">
+      <c r="A190" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B190" s="17">
+      <c r="B190" s="15">
         <v>2.2140442380993201E-13</v>
       </c>
-      <c r="C190" s="17">
+      <c r="C190" s="15">
         <v>0</v>
       </c>
-      <c r="D190" s="17">
+      <c r="D190" s="15">
         <v>2.0856018620722599E-13</v>
       </c>
-      <c r="E190" s="17">
+      <c r="E190" s="15">
         <v>0</v>
       </c>
-      <c r="F190" s="17">
+      <c r="F190" s="15">
         <v>0</v>
       </c>
-      <c r="G190" s="17">
+      <c r="G190" s="15">
         <v>1.77214033050162E-13</v>
       </c>
-      <c r="H190" s="17">
+      <c r="H190" s="15">
         <v>1.6978221225915201E-13</v>
       </c>
-      <c r="I190" s="17">
+      <c r="I190" s="15">
         <v>0</v>
       </c>
-      <c r="J190" s="17">
+      <c r="J190" s="15">
         <v>0</v>
       </c>
-      <c r="K190" s="17">
+      <c r="K190" s="15">
         <v>0</v>
       </c>
-      <c r="L190" s="17">
+      <c r="L190" s="15">
         <v>0</v>
       </c>
-      <c r="M190" s="17">
+      <c r="M190" s="15">
         <v>7.3611511869931106E-14</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A191" s="16" t="s">
+      <c r="A191" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B191" s="17">
+      <c r="B191" s="15">
         <v>-501.61397324025398</v>
       </c>
-      <c r="C191" s="17">
+      <c r="C191" s="15">
         <v>-626.16154556626896</v>
       </c>
-      <c r="D191" s="17">
+      <c r="D191" s="15">
         <v>-509.78725180668903</v>
       </c>
-      <c r="E191" s="17">
+      <c r="E191" s="15">
         <v>-558.83547457278803</v>
       </c>
-      <c r="F191" s="17">
+      <c r="F191" s="15">
         <v>-480.80326694993704</v>
       </c>
-      <c r="G191" s="17">
+      <c r="G191" s="15">
         <v>-387.34502398792699</v>
       </c>
-      <c r="H191" s="17">
+      <c r="H191" s="15">
         <v>-362.30970254066</v>
       </c>
-      <c r="I191" s="17">
+      <c r="I191" s="15">
         <v>-412.100037728296</v>
       </c>
-      <c r="J191" s="17">
+      <c r="J191" s="15">
         <v>-328.87350587921003</v>
       </c>
-      <c r="K191" s="17">
+      <c r="K191" s="15">
         <v>-268.74939265092996</v>
       </c>
-      <c r="L191" s="17">
+      <c r="L191" s="15">
         <v>-169.850915310179</v>
       </c>
-      <c r="M191" s="17">
+      <c r="M191" s="15">
         <v>-163.06994580058898</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A192" s="16" t="s">
+      <c r="A192" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B192" s="17">
+      <c r="B192" s="15">
         <v>307.975988436617</v>
       </c>
-      <c r="C192" s="17">
+      <c r="C192" s="15">
         <v>19.9045420310396</v>
       </c>
-      <c r="D192" s="17">
+      <c r="D192" s="15">
         <v>118.91435344969099</v>
       </c>
-      <c r="E192" s="17">
+      <c r="E192" s="15">
         <v>268.560489547391</v>
       </c>
-      <c r="F192" s="17">
+      <c r="F192" s="15">
         <v>149.91582750075702</v>
       </c>
-      <c r="G192" s="17">
+      <c r="G192" s="15">
         <v>496.27914473013004</v>
       </c>
-      <c r="H192" s="17">
+      <c r="H192" s="15">
         <v>261.807356569126</v>
       </c>
-      <c r="I192" s="17">
+      <c r="I192" s="15">
         <v>41.747226360905501</v>
       </c>
-      <c r="J192" s="17">
+      <c r="J192" s="15">
         <v>70.120697488562001</v>
       </c>
-      <c r="K192" s="17">
+      <c r="K192" s="15">
         <v>70.521254813676009</v>
       </c>
-      <c r="L192" s="17">
+      <c r="L192" s="15">
         <v>54.141940935006907</v>
       </c>
-      <c r="M192" s="17">
+      <c r="M192" s="15">
         <v>-24.764056862321301</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A193" s="16" t="s">
+      <c r="A193" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B193" s="17">
+      <c r="B193" s="15">
         <v>-67.798416802388402</v>
       </c>
-      <c r="C193" s="17">
+      <c r="C193" s="15">
         <v>-139.05075526877101</v>
       </c>
-      <c r="D193" s="17">
+      <c r="D193" s="15">
         <v>-4.8055583914099396</v>
       </c>
-      <c r="E193" s="17">
+      <c r="E193" s="15">
         <v>82.686229335062706</v>
       </c>
-      <c r="F193" s="17">
+      <c r="F193" s="15">
         <v>-7.6874939087194898</v>
       </c>
-      <c r="G193" s="17">
+      <c r="G193" s="15">
         <v>44.428994083258303</v>
       </c>
-      <c r="H193" s="17">
+      <c r="H193" s="15">
         <v>20.0428858761844</v>
       </c>
-      <c r="I193" s="17">
+      <c r="I193" s="15">
         <v>190.36306605702899</v>
       </c>
-      <c r="J193" s="17">
+      <c r="J193" s="15">
         <v>6.4634516742050003</v>
       </c>
-      <c r="K193" s="17">
+      <c r="K193" s="15">
         <v>-3.4265070261736401</v>
       </c>
-      <c r="L193" s="17">
+      <c r="L193" s="15">
         <v>2.3369408426517801</v>
       </c>
-      <c r="M193" s="17">
+      <c r="M193" s="15">
         <v>61.942920751888401</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A194" s="16" t="s">
+      <c r="A194" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B194" s="17">
+      <c r="B194" s="15">
         <v>-108.15401814093902</v>
       </c>
-      <c r="C194" s="17">
+      <c r="C194" s="15">
         <v>-199.34492415225199</v>
       </c>
-      <c r="D194" s="17">
+      <c r="D194" s="15">
         <v>-217.41902056970798</v>
       </c>
-      <c r="E194" s="17">
+      <c r="E194" s="15">
         <v>-242.77303041517203</v>
       </c>
-      <c r="F194" s="17">
+      <c r="F194" s="15">
         <v>-383.86241518685301</v>
       </c>
-      <c r="G194" s="17">
+      <c r="G194" s="15">
         <v>-463.52303455378296</v>
       </c>
-      <c r="H194" s="17">
+      <c r="H194" s="15">
         <v>-517.21154344387992</v>
       </c>
-      <c r="I194" s="17">
+      <c r="I194" s="15">
         <v>-869.44872744922907</v>
       </c>
-      <c r="J194" s="17">
+      <c r="J194" s="15">
         <v>-874.64828193633707</v>
       </c>
-      <c r="K194" s="17">
+      <c r="K194" s="15">
         <v>-901.00968191494098</v>
       </c>
-      <c r="L194" s="17">
+      <c r="L194" s="15">
         <v>-1000.34049240644</v>
       </c>
-      <c r="M194" s="17">
+      <c r="M194" s="15">
         <v>-1000.75864256042</v>
       </c>
     </row>
@@ -18568,18 +18561,18 @@
       <c r="G205" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H205" s="13">
+      <c r="H205" s="4">
         <v>0.39077556874877301</v>
       </c>
-      <c r="I205" s="13">
+      <c r="I205" s="4">
         <f>B205/C205</f>
         <v>3.2793715762692282</v>
       </c>
-      <c r="J205" s="14">
+      <c r="J205" s="12">
         <f>D205/B205</f>
         <v>1.5685726059855987</v>
       </c>
-      <c r="K205" s="14">
+      <c r="K205" s="12">
         <f>1000*E205/D205</f>
         <v>523.43624230489479</v>
       </c>
@@ -18603,18 +18596,18 @@
       <c r="G206" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H206" s="13">
+      <c r="H206" s="4">
         <v>0.45571107212116502</v>
       </c>
-      <c r="I206" s="13">
+      <c r="I206" s="4">
         <f t="shared" ref="I206:I218" si="31">B206/C206</f>
         <v>1.9829535864585817</v>
       </c>
-      <c r="J206" s="14">
+      <c r="J206" s="12">
         <f t="shared" ref="J206:J218" si="32">D206/B206</f>
         <v>2.1362084922425408</v>
       </c>
-      <c r="K206" s="14">
+      <c r="K206" s="12">
         <f t="shared" ref="K206:K218" si="33">1000*E206/D206</f>
         <v>489.02850429064921</v>
       </c>
@@ -18638,18 +18631,18 @@
       <c r="G207" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H207" s="13">
+      <c r="H207" s="4">
         <v>0.69466482850317457</v>
       </c>
-      <c r="I207" s="13">
+      <c r="I207" s="4">
         <f t="shared" si="31"/>
         <v>1.695280402740871</v>
       </c>
-      <c r="J207" s="14">
+      <c r="J207" s="12">
         <f t="shared" si="32"/>
         <v>1.6018192289788253</v>
       </c>
-      <c r="K207" s="14">
+      <c r="K207" s="12">
         <f t="shared" si="33"/>
         <v>452.09558271057568</v>
       </c>
@@ -18673,18 +18666,18 @@
       <c r="G208" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H208" s="13">
+      <c r="H208" s="4">
         <v>0.4724435023086227</v>
       </c>
-      <c r="I208" s="13">
+      <c r="I208" s="4">
         <f t="shared" si="31"/>
         <v>1.9058047549850883</v>
       </c>
-      <c r="J208" s="14">
+      <c r="J208" s="12">
         <f t="shared" si="32"/>
         <v>1.7802766538712125</v>
       </c>
-      <c r="K208" s="14">
+      <c r="K208" s="12">
         <f t="shared" si="33"/>
         <v>520.76504505142498</v>
       </c>
@@ -18708,18 +18701,18 @@
       <c r="G209" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H209" s="13">
+      <c r="H209" s="4">
         <v>0.3761982382158725</v>
       </c>
-      <c r="I209" s="13">
+      <c r="I209" s="4">
         <f t="shared" si="31"/>
         <v>1.792876283540406</v>
       </c>
-      <c r="J209" s="14">
+      <c r="J209" s="12">
         <f t="shared" si="32"/>
         <v>2.0966690488678692</v>
       </c>
-      <c r="K209" s="14">
+      <c r="K209" s="12">
         <f t="shared" si="33"/>
         <v>572.35476500345533</v>
       </c>
@@ -18743,18 +18736,18 @@
       <c r="G210" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H210" s="13">
+      <c r="H210" s="4">
         <v>0.37040152780044983</v>
       </c>
-      <c r="I210" s="13">
+      <c r="I210" s="4">
         <f t="shared" si="31"/>
         <v>1.8573909511517173</v>
       </c>
-      <c r="J210" s="14">
+      <c r="J210" s="12">
         <f t="shared" si="32"/>
         <v>1.872771492967666</v>
       </c>
-      <c r="K210" s="14">
+      <c r="K210" s="12">
         <f t="shared" si="33"/>
         <v>518.70011486126259</v>
       </c>
@@ -18778,18 +18771,18 @@
       <c r="G211" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H211" s="13">
+      <c r="H211" s="4">
         <v>0.18040259547609794</v>
       </c>
-      <c r="I211" s="13">
+      <c r="I211" s="4">
         <f t="shared" si="31"/>
         <v>2.0184270173747301</v>
       </c>
-      <c r="J211" s="14">
+      <c r="J211" s="12">
         <f t="shared" si="32"/>
         <v>2.9211897565702061</v>
       </c>
-      <c r="K211" s="14">
+      <c r="K211" s="12">
         <f t="shared" si="33"/>
         <v>553.40140899115067</v>
       </c>
@@ -18813,18 +18806,18 @@
       <c r="G212" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H212" s="13">
+      <c r="H212" s="4">
         <v>0.22072999445432998</v>
       </c>
-      <c r="I212" s="13">
+      <c r="I212" s="4">
         <f t="shared" si="31"/>
         <v>2.0417675275408147</v>
       </c>
-      <c r="J212" s="14">
+      <c r="J212" s="12">
         <f t="shared" si="32"/>
         <v>2.2090509396084164</v>
       </c>
-      <c r="K212" s="14">
+      <c r="K212" s="12">
         <f t="shared" si="33"/>
         <v>537.33821668705059</v>
       </c>
@@ -18848,18 +18841,18 @@
       <c r="G213" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H213" s="13">
+      <c r="H213" s="4">
         <v>0.18371963240478414</v>
       </c>
-      <c r="I213" s="13">
+      <c r="I213" s="4">
         <f t="shared" si="31"/>
         <v>2.410693359923616</v>
       </c>
-      <c r="J213" s="14">
+      <c r="J213" s="12">
         <f t="shared" si="32"/>
         <v>1.7399980340731511</v>
       </c>
-      <c r="K213" s="14">
+      <c r="K213" s="12">
         <f t="shared" si="33"/>
         <v>532.690710710904</v>
       </c>
@@ -18883,18 +18876,18 @@
       <c r="G214" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H214" s="13">
+      <c r="H214" s="4">
         <v>9.750483862354016E-2</v>
       </c>
-      <c r="I214" s="13">
+      <c r="I214" s="4">
         <f t="shared" si="31"/>
         <v>1.4303010631486655</v>
       </c>
-      <c r="J214" s="14">
+      <c r="J214" s="12">
         <f t="shared" si="32"/>
         <v>1.7061245021145921</v>
       </c>
-      <c r="K214" s="14">
+      <c r="K214" s="12">
         <f t="shared" si="33"/>
         <v>767.94095561796905</v>
       </c>
@@ -18918,18 +18911,18 @@
       <c r="G215" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H215" s="13">
+      <c r="H215" s="4">
         <v>0.11015807561611164</v>
       </c>
-      <c r="I215" s="13">
+      <c r="I215" s="4">
         <f t="shared" si="31"/>
         <v>1.6795803692952225</v>
       </c>
-      <c r="J215" s="14">
+      <c r="J215" s="12">
         <f t="shared" si="32"/>
         <v>1.8091004396185575</v>
       </c>
-      <c r="K215" s="14">
+      <c r="K215" s="12">
         <f t="shared" si="33"/>
         <v>530.36498085599044</v>
       </c>
@@ -18953,18 +18946,18 @@
       <c r="G216" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H216" s="13">
+      <c r="H216" s="4">
         <v>8.6671141381717276E-2</v>
       </c>
-      <c r="I216" s="13">
+      <c r="I216" s="4">
         <f t="shared" si="31"/>
         <v>1.8384423915034023</v>
       </c>
-      <c r="J216" s="14">
+      <c r="J216" s="12">
         <f t="shared" si="32"/>
         <v>1.8258190025948411</v>
       </c>
-      <c r="K216" s="14">
+      <c r="K216" s="12">
         <f t="shared" si="33"/>
         <v>519.58815446942629</v>
       </c>
@@ -18988,18 +18981,18 @@
       <c r="G217" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H217" s="13">
+      <c r="H217" s="4">
         <v>2.7077724743123373E-2</v>
       </c>
-      <c r="I217" s="13">
+      <c r="I217" s="4">
         <f t="shared" si="31"/>
         <v>1.9669186289826115</v>
       </c>
-      <c r="J217" s="14">
+      <c r="J217" s="12">
         <f t="shared" si="32"/>
         <v>1.8461672385760954</v>
       </c>
-      <c r="K217" s="14">
+      <c r="K217" s="12">
         <f t="shared" si="33"/>
         <v>527.13068310861513</v>
       </c>
@@ -19023,804 +19016,804 @@
       <c r="G218" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H218" s="13">
+      <c r="H218" s="4">
         <v>2.7914579997675514E-2</v>
       </c>
-      <c r="I218" s="13">
+      <c r="I218" s="4">
         <f t="shared" si="31"/>
         <v>2.0052351474071384</v>
       </c>
-      <c r="J218" s="14">
+      <c r="J218" s="12">
         <f t="shared" si="32"/>
         <v>1.4556707354121292</v>
       </c>
-      <c r="K218" s="14">
+      <c r="K218" s="12">
         <f t="shared" si="33"/>
         <v>630.97247988700838</v>
       </c>
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F219" s="11"/>
-      <c r="G219" s="11"/>
-      <c r="H219" s="11"/>
-      <c r="I219" s="11"/>
-      <c r="J219" s="11"/>
-      <c r="K219" s="11"/>
-      <c r="L219" s="11"/>
-      <c r="M219" s="11"/>
-      <c r="N219" s="11"/>
-      <c r="O219" s="11"/>
-      <c r="P219" s="11"/>
+      <c r="F219" s="10"/>
+      <c r="G219" s="10"/>
+      <c r="H219" s="10"/>
+      <c r="I219" s="10"/>
+      <c r="J219" s="10"/>
+      <c r="K219" s="10"/>
+      <c r="L219" s="10"/>
+      <c r="M219" s="10"/>
+      <c r="N219" s="10"/>
+      <c r="O219" s="10"/>
+      <c r="P219" s="10"/>
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F220" s="11"/>
-      <c r="G220" s="11"/>
-      <c r="H220" s="11"/>
-      <c r="I220" s="11"/>
-      <c r="J220" s="11"/>
-      <c r="K220" s="11"/>
-      <c r="L220" s="11"/>
-      <c r="M220" s="11"/>
-      <c r="N220" s="11"/>
-      <c r="O220" s="11"/>
-      <c r="P220" s="11"/>
-      <c r="Q220" s="11"/>
-      <c r="R220" s="11"/>
+      <c r="F220" s="10"/>
+      <c r="G220" s="10"/>
+      <c r="H220" s="10"/>
+      <c r="I220" s="10"/>
+      <c r="J220" s="10"/>
+      <c r="K220" s="10"/>
+      <c r="L220" s="10"/>
+      <c r="M220" s="10"/>
+      <c r="N220" s="10"/>
+      <c r="O220" s="10"/>
+      <c r="P220" s="10"/>
+      <c r="Q220" s="10"/>
+      <c r="R220" s="10"/>
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F221" s="11"/>
-      <c r="G221" s="11"/>
-      <c r="H221" s="11"/>
-      <c r="I221" s="11"/>
-      <c r="J221" s="11"/>
-      <c r="K221" s="11"/>
-      <c r="L221" s="11"/>
-      <c r="M221" s="11"/>
-      <c r="N221" s="11"/>
-      <c r="O221" s="11"/>
-      <c r="P221" s="11"/>
-      <c r="Q221" s="11"/>
-      <c r="R221" s="11"/>
+      <c r="F221" s="10"/>
+      <c r="G221" s="10"/>
+      <c r="H221" s="10"/>
+      <c r="I221" s="10"/>
+      <c r="J221" s="10"/>
+      <c r="K221" s="10"/>
+      <c r="L221" s="10"/>
+      <c r="M221" s="10"/>
+      <c r="N221" s="10"/>
+      <c r="O221" s="10"/>
+      <c r="P221" s="10"/>
+      <c r="Q221" s="10"/>
+      <c r="R221" s="10"/>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F222" s="11"/>
-      <c r="G222" s="11"/>
-      <c r="H222" s="11"/>
-      <c r="I222" s="11"/>
-      <c r="J222" s="11"/>
-      <c r="K222" s="11"/>
-      <c r="L222" s="11"/>
-      <c r="M222" s="11"/>
-      <c r="N222" s="11"/>
-      <c r="O222" s="11"/>
-      <c r="P222" s="11"/>
-      <c r="Q222" s="11"/>
-      <c r="R222" s="11"/>
+      <c r="F222" s="10"/>
+      <c r="G222" s="10"/>
+      <c r="H222" s="10"/>
+      <c r="I222" s="10"/>
+      <c r="J222" s="10"/>
+      <c r="K222" s="10"/>
+      <c r="L222" s="10"/>
+      <c r="M222" s="10"/>
+      <c r="N222" s="10"/>
+      <c r="O222" s="10"/>
+      <c r="P222" s="10"/>
+      <c r="Q222" s="10"/>
+      <c r="R222" s="10"/>
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F223" s="11"/>
-      <c r="G223" s="11"/>
-      <c r="H223" s="11"/>
-      <c r="I223" s="11"/>
-      <c r="J223" s="11"/>
-      <c r="K223" s="11"/>
-      <c r="L223" s="11"/>
-      <c r="M223" s="11"/>
-      <c r="N223" s="11"/>
-      <c r="O223" s="11"/>
-      <c r="P223" s="11"/>
-      <c r="Q223" s="11"/>
-      <c r="R223" s="11"/>
+      <c r="F223" s="10"/>
+      <c r="G223" s="10"/>
+      <c r="H223" s="10"/>
+      <c r="I223" s="10"/>
+      <c r="J223" s="10"/>
+      <c r="K223" s="10"/>
+      <c r="L223" s="10"/>
+      <c r="M223" s="10"/>
+      <c r="N223" s="10"/>
+      <c r="O223" s="10"/>
+      <c r="P223" s="10"/>
+      <c r="Q223" s="10"/>
+      <c r="R223" s="10"/>
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F224" s="11"/>
-      <c r="G224" s="11"/>
-      <c r="H224" s="11"/>
-      <c r="I224" s="11"/>
-      <c r="J224" s="11"/>
-      <c r="K224" s="11"/>
-      <c r="L224" s="11"/>
-      <c r="M224" s="11"/>
-      <c r="N224" s="11"/>
-      <c r="O224" s="11"/>
-      <c r="P224" s="11"/>
-      <c r="Q224" s="11"/>
-      <c r="R224" s="11"/>
+      <c r="F224" s="10"/>
+      <c r="G224" s="10"/>
+      <c r="H224" s="10"/>
+      <c r="I224" s="10"/>
+      <c r="J224" s="10"/>
+      <c r="K224" s="10"/>
+      <c r="L224" s="10"/>
+      <c r="M224" s="10"/>
+      <c r="N224" s="10"/>
+      <c r="O224" s="10"/>
+      <c r="P224" s="10"/>
+      <c r="Q224" s="10"/>
+      <c r="R224" s="10"/>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F225" s="11"/>
-      <c r="G225" s="11"/>
-      <c r="H225" s="11"/>
-      <c r="I225" s="11"/>
-      <c r="J225" s="11"/>
-      <c r="K225" s="11"/>
-      <c r="L225" s="11"/>
-      <c r="M225" s="11"/>
-      <c r="N225" s="11"/>
-      <c r="O225" s="11"/>
-      <c r="P225" s="11"/>
-      <c r="Q225" s="11"/>
-      <c r="R225" s="11"/>
+      <c r="F225" s="10"/>
+      <c r="G225" s="10"/>
+      <c r="H225" s="10"/>
+      <c r="I225" s="10"/>
+      <c r="J225" s="10"/>
+      <c r="K225" s="10"/>
+      <c r="L225" s="10"/>
+      <c r="M225" s="10"/>
+      <c r="N225" s="10"/>
+      <c r="O225" s="10"/>
+      <c r="P225" s="10"/>
+      <c r="Q225" s="10"/>
+      <c r="R225" s="10"/>
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B226" s="20" t="s">
+      <c r="B226" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C226" s="20"/>
-      <c r="D226" s="20" t="s">
+      <c r="C226" s="17"/>
+      <c r="D226" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E226" s="20"/>
-      <c r="F226" s="11"/>
-      <c r="G226" s="11"/>
-      <c r="H226" s="11"/>
-      <c r="I226" s="11"/>
-      <c r="J226" s="11"/>
-      <c r="K226" s="11"/>
-      <c r="L226" s="11"/>
-      <c r="M226" s="11"/>
-      <c r="N226" s="11"/>
-      <c r="O226" s="11"/>
-      <c r="P226" s="11"/>
-      <c r="Q226" s="11"/>
-      <c r="R226" s="11"/>
+      <c r="E226" s="17"/>
+      <c r="F226" s="10"/>
+      <c r="G226" s="10"/>
+      <c r="H226" s="10"/>
+      <c r="I226" s="10"/>
+      <c r="J226" s="10"/>
+      <c r="K226" s="10"/>
+      <c r="L226" s="10"/>
+      <c r="M226" s="10"/>
+      <c r="N226" s="10"/>
+      <c r="O226" s="10"/>
+      <c r="P226" s="10"/>
+      <c r="Q226" s="10"/>
+      <c r="R226" s="10"/>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A227" s="18"/>
-      <c r="B227" s="18" t="s">
+      <c r="A227" s="14"/>
+      <c r="B227" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C227" s="18" t="s">
+      <c r="C227" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D227" s="18" t="s">
+      <c r="D227" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E227" s="18" t="s">
+      <c r="E227" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F227" s="11"/>
-      <c r="G227" s="11"/>
-      <c r="H227" s="11"/>
-      <c r="I227" s="11"/>
-      <c r="J227" s="11"/>
-      <c r="K227" s="11"/>
-      <c r="L227" s="11"/>
-      <c r="M227" s="11"/>
-      <c r="N227" s="11"/>
-      <c r="O227" s="11"/>
-      <c r="P227" s="11"/>
-      <c r="Q227" s="11"/>
-      <c r="R227" s="11"/>
+      <c r="F227" s="10"/>
+      <c r="G227" s="10"/>
+      <c r="H227" s="10"/>
+      <c r="I227" s="10"/>
+      <c r="J227" s="10"/>
+      <c r="K227" s="10"/>
+      <c r="L227" s="10"/>
+      <c r="M227" s="10"/>
+      <c r="N227" s="10"/>
+      <c r="O227" s="10"/>
+      <c r="P227" s="10"/>
+      <c r="Q227" s="10"/>
+      <c r="R227" s="10"/>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A228" s="19" t="s">
+      <c r="A228" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B228" s="21">
+      <c r="B228" s="14">
         <v>0</v>
       </c>
-      <c r="C228" s="21">
+      <c r="C228" s="14">
         <v>0</v>
       </c>
-      <c r="D228" s="22">
+      <c r="D228" s="14">
         <v>108421.35108227677</v>
       </c>
-      <c r="E228" s="22">
+      <c r="E228" s="14">
         <v>181327.6322999578</v>
       </c>
-      <c r="F228" s="11"/>
-      <c r="G228" s="11"/>
-      <c r="H228" s="11"/>
-      <c r="I228" s="11"/>
-      <c r="J228" s="11"/>
-      <c r="K228" s="11"/>
-      <c r="L228" s="11"/>
-      <c r="M228" s="11"/>
-      <c r="N228" s="11"/>
-      <c r="O228" s="11"/>
-      <c r="P228" s="11"/>
-      <c r="Q228" s="11"/>
-      <c r="R228" s="11"/>
+      <c r="F228" s="10"/>
+      <c r="G228" s="10"/>
+      <c r="H228" s="10"/>
+      <c r="I228" s="10"/>
+      <c r="J228" s="10"/>
+      <c r="K228" s="10"/>
+      <c r="L228" s="10"/>
+      <c r="M228" s="10"/>
+      <c r="N228" s="10"/>
+      <c r="O228" s="10"/>
+      <c r="P228" s="10"/>
+      <c r="Q228" s="10"/>
+      <c r="R228" s="10"/>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A229" s="19" t="s">
+      <c r="A229" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B229" s="21">
+      <c r="B229" s="14">
         <v>9762.5667948630253</v>
       </c>
-      <c r="C229" s="21">
+      <c r="C229" s="14">
         <v>52622.248286030685</v>
       </c>
-      <c r="D229" s="22">
+      <c r="D229" s="14">
         <v>161026.4740758962</v>
       </c>
-      <c r="E229" s="22">
+      <c r="E229" s="14">
         <v>507261.51839893335</v>
       </c>
-      <c r="F229" s="11"/>
-      <c r="G229" s="11"/>
-      <c r="H229" s="11"/>
-      <c r="I229" s="11"/>
-      <c r="J229" s="11"/>
-      <c r="K229" s="11"/>
-      <c r="L229" s="11"/>
-      <c r="M229" s="11"/>
-      <c r="N229" s="11"/>
-      <c r="O229" s="11"/>
-      <c r="P229" s="11"/>
-      <c r="Q229" s="11"/>
-      <c r="R229" s="11"/>
+      <c r="F229" s="10"/>
+      <c r="G229" s="10"/>
+      <c r="H229" s="10"/>
+      <c r="I229" s="10"/>
+      <c r="J229" s="10"/>
+      <c r="K229" s="10"/>
+      <c r="L229" s="10"/>
+      <c r="M229" s="10"/>
+      <c r="N229" s="10"/>
+      <c r="O229" s="10"/>
+      <c r="P229" s="10"/>
+      <c r="Q229" s="10"/>
+      <c r="R229" s="10"/>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A230" s="19" t="s">
+      <c r="A230" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B230" s="21">
+      <c r="B230" s="14">
         <v>15585.987554156876</v>
       </c>
-      <c r="C230" s="21">
+      <c r="C230" s="14">
         <v>42622.830923018337</v>
       </c>
-      <c r="D230" s="22">
+      <c r="D230" s="14">
         <v>55115.545048559252</v>
       </c>
-      <c r="E230" s="22">
+      <c r="E230" s="14">
         <v>107420.87689270554</v>
       </c>
-      <c r="F230" s="11"/>
-      <c r="G230" s="11"/>
-      <c r="H230" s="11"/>
-      <c r="I230" s="11"/>
-      <c r="J230" s="11"/>
-      <c r="K230" s="11"/>
-      <c r="L230" s="11"/>
-      <c r="M230" s="11"/>
-      <c r="N230" s="11"/>
-      <c r="O230" s="11"/>
-      <c r="P230" s="11"/>
-      <c r="Q230" s="11"/>
-      <c r="R230" s="11"/>
+      <c r="F230" s="10"/>
+      <c r="G230" s="10"/>
+      <c r="H230" s="10"/>
+      <c r="I230" s="10"/>
+      <c r="J230" s="10"/>
+      <c r="K230" s="10"/>
+      <c r="L230" s="10"/>
+      <c r="M230" s="10"/>
+      <c r="N230" s="10"/>
+      <c r="O230" s="10"/>
+      <c r="P230" s="10"/>
+      <c r="Q230" s="10"/>
+      <c r="R230" s="10"/>
     </row>
     <row r="231" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A231" s="19" t="s">
+      <c r="A231" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B231" s="21">
+      <c r="B231" s="14">
         <v>16741.402889109839</v>
       </c>
-      <c r="C231" s="21">
+      <c r="C231" s="14">
         <v>72779.33066696988</v>
       </c>
-      <c r="D231" s="22">
+      <c r="D231" s="14">
         <v>74427.143871286331</v>
       </c>
-      <c r="E231" s="22">
+      <c r="E231" s="14">
         <v>153012.68504136283</v>
       </c>
-      <c r="F231" s="11"/>
-      <c r="G231" s="11"/>
-      <c r="H231" s="11"/>
-      <c r="I231" s="11"/>
-      <c r="J231" s="11"/>
-      <c r="K231" s="11"/>
-      <c r="L231" s="11"/>
-      <c r="M231" s="11"/>
-      <c r="N231" s="11"/>
-      <c r="O231" s="11"/>
-      <c r="P231" s="11"/>
-      <c r="Q231" s="11"/>
-      <c r="R231" s="11"/>
+      <c r="F231" s="10"/>
+      <c r="G231" s="10"/>
+      <c r="H231" s="10"/>
+      <c r="I231" s="10"/>
+      <c r="J231" s="10"/>
+      <c r="K231" s="10"/>
+      <c r="L231" s="10"/>
+      <c r="M231" s="10"/>
+      <c r="N231" s="10"/>
+      <c r="O231" s="10"/>
+      <c r="P231" s="10"/>
+      <c r="Q231" s="10"/>
+      <c r="R231" s="10"/>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A232" s="19" t="s">
+      <c r="A232" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B232" s="21">
+      <c r="B232" s="14">
         <v>43788.583897087505</v>
       </c>
-      <c r="C232" s="21">
+      <c r="C232" s="14">
         <v>58306.873830848584</v>
       </c>
-      <c r="D232" s="22">
+      <c r="D232" s="14">
         <v>213095.00058392351</v>
       </c>
-      <c r="E232" s="22">
+      <c r="E232" s="14">
         <v>360887.60852568608</v>
       </c>
-      <c r="F232" s="11"/>
-      <c r="G232" s="11"/>
-      <c r="H232" s="11"/>
-      <c r="I232" s="11"/>
-      <c r="J232" s="11"/>
-      <c r="K232" s="11"/>
-      <c r="L232" s="11"/>
-      <c r="M232" s="11"/>
-      <c r="N232" s="11"/>
-      <c r="O232" s="11"/>
-      <c r="P232" s="11"/>
-      <c r="Q232" s="11"/>
-      <c r="R232" s="11"/>
+      <c r="F232" s="10"/>
+      <c r="G232" s="10"/>
+      <c r="H232" s="10"/>
+      <c r="I232" s="10"/>
+      <c r="J232" s="10"/>
+      <c r="K232" s="10"/>
+      <c r="L232" s="10"/>
+      <c r="M232" s="10"/>
+      <c r="N232" s="10"/>
+      <c r="O232" s="10"/>
+      <c r="P232" s="10"/>
+      <c r="Q232" s="10"/>
+      <c r="R232" s="10"/>
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A233" s="19" t="s">
+      <c r="A233" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B233" s="21">
+      <c r="B233" s="14">
         <v>77706.777908506483</v>
       </c>
-      <c r="C233" s="21">
+      <c r="C233" s="14">
         <v>125851.64465250089</v>
       </c>
-      <c r="D233" s="22">
+      <c r="D233" s="14">
         <v>33550.769414347815</v>
       </c>
-      <c r="E233" s="22">
+      <c r="E233" s="14">
         <v>58592.137225393933</v>
       </c>
-      <c r="F233" s="11"/>
-      <c r="G233" s="11"/>
-      <c r="H233" s="11"/>
-      <c r="I233" s="11"/>
-      <c r="J233" s="11"/>
-      <c r="K233" s="11"/>
-      <c r="L233" s="11"/>
-      <c r="M233" s="11"/>
-      <c r="N233" s="11"/>
-      <c r="O233" s="11"/>
-      <c r="P233" s="11"/>
-      <c r="Q233" s="11"/>
-      <c r="R233" s="11"/>
+      <c r="F233" s="10"/>
+      <c r="G233" s="10"/>
+      <c r="H233" s="10"/>
+      <c r="I233" s="10"/>
+      <c r="J233" s="10"/>
+      <c r="K233" s="10"/>
+      <c r="L233" s="10"/>
+      <c r="M233" s="10"/>
+      <c r="N233" s="10"/>
+      <c r="O233" s="10"/>
+      <c r="P233" s="10"/>
+      <c r="Q233" s="10"/>
+      <c r="R233" s="10"/>
     </row>
     <row r="234" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A234" s="19" t="s">
+      <c r="A234" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B234" s="21">
+      <c r="B234" s="14">
         <v>113301.43128219152</v>
       </c>
-      <c r="C234" s="21">
+      <c r="C234" s="14">
         <v>187062.59514166162</v>
       </c>
-      <c r="D234" s="22">
+      <c r="D234" s="14">
         <v>84659.138509200449</v>
       </c>
-      <c r="E234" s="22">
+      <c r="E234" s="14">
         <v>116680.9392669215</v>
       </c>
-      <c r="F234" s="11"/>
-      <c r="G234" s="11"/>
-      <c r="H234" s="11"/>
-      <c r="I234" s="11"/>
-      <c r="J234" s="11"/>
-      <c r="K234" s="11"/>
-      <c r="L234" s="11"/>
-      <c r="M234" s="11"/>
-      <c r="N234" s="11"/>
-      <c r="O234" s="11"/>
-      <c r="P234" s="11"/>
-      <c r="Q234" s="11"/>
-      <c r="R234" s="11"/>
+      <c r="F234" s="10"/>
+      <c r="G234" s="10"/>
+      <c r="H234" s="10"/>
+      <c r="I234" s="10"/>
+      <c r="J234" s="10"/>
+      <c r="K234" s="10"/>
+      <c r="L234" s="10"/>
+      <c r="M234" s="10"/>
+      <c r="N234" s="10"/>
+      <c r="O234" s="10"/>
+      <c r="P234" s="10"/>
+      <c r="Q234" s="10"/>
+      <c r="R234" s="10"/>
     </row>
     <row r="235" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A235" s="19" t="s">
+      <c r="A235" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B235" s="21">
+      <c r="B235" s="14">
         <v>114974.36132360164</v>
       </c>
-      <c r="C235" s="21">
+      <c r="C235" s="14">
         <v>216961.37546027475</v>
       </c>
-      <c r="D235" s="22">
+      <c r="D235" s="14">
         <v>66594.368497388292</v>
       </c>
-      <c r="E235" s="22">
+      <c r="E235" s="14">
         <v>97201.56355023841</v>
       </c>
-      <c r="F235" s="11"/>
-      <c r="G235" s="11"/>
-      <c r="H235" s="11"/>
-      <c r="I235" s="11"/>
-      <c r="J235" s="11"/>
-      <c r="K235" s="11"/>
-      <c r="L235" s="11"/>
-      <c r="M235" s="11"/>
-      <c r="N235" s="11"/>
-      <c r="O235" s="11"/>
-      <c r="P235" s="11"/>
-      <c r="Q235" s="11"/>
-      <c r="R235" s="11"/>
+      <c r="F235" s="10"/>
+      <c r="G235" s="10"/>
+      <c r="H235" s="10"/>
+      <c r="I235" s="10"/>
+      <c r="J235" s="10"/>
+      <c r="K235" s="10"/>
+      <c r="L235" s="10"/>
+      <c r="M235" s="10"/>
+      <c r="N235" s="10"/>
+      <c r="O235" s="10"/>
+      <c r="P235" s="10"/>
+      <c r="Q235" s="10"/>
+      <c r="R235" s="10"/>
     </row>
     <row r="236" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A236" s="19" t="s">
+      <c r="A236" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B236" s="21">
+      <c r="B236" s="14">
         <v>149992.47963309259</v>
       </c>
-      <c r="C236" s="21">
+      <c r="C236" s="14">
         <v>327313.95487809792</v>
       </c>
-      <c r="D236" s="22">
+      <c r="D236" s="14">
         <v>483814.39045096195</v>
       </c>
-      <c r="E236" s="22">
+      <c r="E236" s="14">
         <v>817389.64511764713</v>
       </c>
-      <c r="F236" s="11"/>
-      <c r="G236" s="11"/>
-      <c r="H236" s="11"/>
-      <c r="I236" s="11"/>
-      <c r="J236" s="11"/>
-      <c r="K236" s="11"/>
-      <c r="L236" s="11"/>
-      <c r="M236" s="11"/>
-      <c r="N236" s="11"/>
-      <c r="O236" s="11"/>
-      <c r="P236" s="11"/>
-      <c r="Q236" s="11"/>
-      <c r="R236" s="11"/>
+      <c r="F236" s="10"/>
+      <c r="G236" s="10"/>
+      <c r="H236" s="10"/>
+      <c r="I236" s="10"/>
+      <c r="J236" s="10"/>
+      <c r="K236" s="10"/>
+      <c r="L236" s="10"/>
+      <c r="M236" s="10"/>
+      <c r="N236" s="10"/>
+      <c r="O236" s="10"/>
+      <c r="P236" s="10"/>
+      <c r="Q236" s="10"/>
+      <c r="R236" s="10"/>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A237" s="19" t="s">
+      <c r="A237" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B237" s="21">
+      <c r="B237" s="14">
         <v>274479.12959675217</v>
       </c>
-      <c r="C237" s="21">
+      <c r="C237" s="14">
         <v>540806.02374079602</v>
       </c>
-      <c r="D237" s="22">
+      <c r="D237" s="14">
         <v>205816.88479583076</v>
       </c>
-      <c r="E237" s="22">
+      <c r="E237" s="14">
         <v>351829.07372948405</v>
       </c>
-      <c r="F237" s="11"/>
-      <c r="G237" s="11"/>
-      <c r="H237" s="11"/>
-      <c r="I237" s="11"/>
-      <c r="J237" s="11"/>
-      <c r="K237" s="11"/>
-      <c r="L237" s="11"/>
-      <c r="M237" s="11"/>
-      <c r="N237" s="11"/>
-      <c r="O237" s="11"/>
-      <c r="P237" s="11"/>
-      <c r="Q237" s="11"/>
-      <c r="R237" s="11"/>
+      <c r="F237" s="10"/>
+      <c r="G237" s="10"/>
+      <c r="H237" s="10"/>
+      <c r="I237" s="10"/>
+      <c r="J237" s="10"/>
+      <c r="K237" s="10"/>
+      <c r="L237" s="10"/>
+      <c r="M237" s="10"/>
+      <c r="N237" s="10"/>
+      <c r="O237" s="10"/>
+      <c r="P237" s="10"/>
+      <c r="Q237" s="10"/>
+      <c r="R237" s="10"/>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B238" s="21">
+      <c r="B238" s="14">
         <v>313377.11085666856</v>
       </c>
-      <c r="C238" s="21">
+      <c r="C238" s="14">
         <v>329715.08091640484</v>
       </c>
-      <c r="D238" s="22">
+      <c r="D238" s="14">
         <v>19608.945205914184</v>
       </c>
-      <c r="E238" s="22">
+      <c r="E238" s="14">
         <v>33829.020901569173</v>
       </c>
-      <c r="F238" s="11"/>
-      <c r="G238" s="11"/>
-      <c r="H238" s="11"/>
-      <c r="I238" s="11"/>
-      <c r="J238" s="11"/>
-      <c r="K238" s="11"/>
-      <c r="L238" s="11"/>
-      <c r="M238" s="11"/>
-      <c r="N238" s="11"/>
-      <c r="O238" s="11"/>
-      <c r="P238" s="11"/>
-      <c r="Q238" s="11"/>
-      <c r="R238" s="11"/>
+      <c r="F238" s="10"/>
+      <c r="G238" s="10"/>
+      <c r="H238" s="10"/>
+      <c r="I238" s="10"/>
+      <c r="J238" s="10"/>
+      <c r="K238" s="10"/>
+      <c r="L238" s="10"/>
+      <c r="M238" s="10"/>
+      <c r="N238" s="10"/>
+      <c r="O238" s="10"/>
+      <c r="P238" s="10"/>
+      <c r="Q238" s="10"/>
+      <c r="R238" s="10"/>
     </row>
     <row r="239" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A239" s="19" t="s">
+      <c r="A239" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B239" s="21">
+      <c r="B239" s="14">
         <v>548984.46099454619</v>
       </c>
-      <c r="C239" s="21">
+      <c r="C239" s="14">
         <v>1124891.0241908014</v>
       </c>
-      <c r="D239" s="22">
+      <c r="D239" s="14">
         <v>37655.081777181353</v>
       </c>
-      <c r="E239" s="22">
+      <c r="E239" s="14">
         <v>51944.560063147495</v>
       </c>
-      <c r="F239" s="11"/>
-      <c r="G239" s="11"/>
-      <c r="H239" s="11"/>
-      <c r="I239" s="11"/>
-      <c r="J239" s="11"/>
-      <c r="K239" s="11"/>
-      <c r="L239" s="11"/>
-      <c r="M239" s="11"/>
-      <c r="N239" s="11"/>
-      <c r="O239" s="11"/>
-      <c r="P239" s="11"/>
-      <c r="Q239" s="11"/>
-      <c r="R239" s="11"/>
+      <c r="F239" s="10"/>
+      <c r="G239" s="10"/>
+      <c r="H239" s="10"/>
+      <c r="I239" s="10"/>
+      <c r="J239" s="10"/>
+      <c r="K239" s="10"/>
+      <c r="L239" s="10"/>
+      <c r="M239" s="10"/>
+      <c r="N239" s="10"/>
+      <c r="O239" s="10"/>
+      <c r="P239" s="10"/>
+      <c r="Q239" s="10"/>
+      <c r="R239" s="10"/>
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A240" s="19" t="s">
+      <c r="A240" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B240" s="21">
+      <c r="B240" s="14">
         <v>1300536.5275129057</v>
       </c>
-      <c r="C240" s="21">
+      <c r="C240" s="14">
         <v>1285842.0195016889</v>
       </c>
-      <c r="D240" s="22">
+      <c r="D240" s="14">
         <v>1435445.7269307168</v>
       </c>
-      <c r="E240" s="22">
+      <c r="E240" s="14">
         <v>1527397.7411760455</v>
       </c>
-      <c r="F240" s="11"/>
-      <c r="G240" s="11"/>
-      <c r="H240" s="11"/>
-      <c r="I240" s="11"/>
-      <c r="J240" s="11"/>
-      <c r="K240" s="11"/>
-      <c r="L240" s="11"/>
-      <c r="M240" s="11"/>
-      <c r="N240" s="11"/>
-      <c r="O240" s="11"/>
-      <c r="P240" s="11"/>
-      <c r="Q240" s="11"/>
-      <c r="R240" s="11"/>
+      <c r="F240" s="10"/>
+      <c r="G240" s="10"/>
+      <c r="H240" s="10"/>
+      <c r="I240" s="10"/>
+      <c r="J240" s="10"/>
+      <c r="K240" s="10"/>
+      <c r="L240" s="10"/>
+      <c r="M240" s="10"/>
+      <c r="N240" s="10"/>
+      <c r="O240" s="10"/>
+      <c r="P240" s="10"/>
+      <c r="Q240" s="10"/>
+      <c r="R240" s="10"/>
     </row>
     <row r="241" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F241" s="11"/>
-      <c r="G241" s="11"/>
-      <c r="H241" s="11"/>
-      <c r="I241" s="11"/>
-      <c r="J241" s="11"/>
-      <c r="K241" s="11"/>
-      <c r="L241" s="11"/>
-      <c r="M241" s="11"/>
-      <c r="N241" s="11"/>
-      <c r="O241" s="11"/>
-      <c r="P241" s="11"/>
-      <c r="Q241" s="11"/>
-      <c r="R241" s="11"/>
+      <c r="F241" s="10"/>
+      <c r="G241" s="10"/>
+      <c r="H241" s="10"/>
+      <c r="I241" s="10"/>
+      <c r="J241" s="10"/>
+      <c r="K241" s="10"/>
+      <c r="L241" s="10"/>
+      <c r="M241" s="10"/>
+      <c r="N241" s="10"/>
+      <c r="O241" s="10"/>
+      <c r="P241" s="10"/>
+      <c r="Q241" s="10"/>
+      <c r="R241" s="10"/>
     </row>
     <row r="242" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F242" s="11"/>
-      <c r="G242" s="11"/>
-      <c r="H242" s="11"/>
-      <c r="I242" s="11"/>
-      <c r="J242" s="11"/>
-      <c r="K242" s="11"/>
-      <c r="L242" s="11"/>
-      <c r="M242" s="11"/>
-      <c r="N242" s="11"/>
-      <c r="O242" s="11"/>
-      <c r="P242" s="11"/>
-      <c r="Q242" s="11"/>
-      <c r="R242" s="11"/>
+      <c r="F242" s="10"/>
+      <c r="G242" s="10"/>
+      <c r="H242" s="10"/>
+      <c r="I242" s="10"/>
+      <c r="J242" s="10"/>
+      <c r="K242" s="10"/>
+      <c r="L242" s="10"/>
+      <c r="M242" s="10"/>
+      <c r="N242" s="10"/>
+      <c r="O242" s="10"/>
+      <c r="P242" s="10"/>
+      <c r="Q242" s="10"/>
+      <c r="R242" s="10"/>
     </row>
     <row r="243" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F243" s="11"/>
-      <c r="G243" s="11"/>
-      <c r="H243" s="11"/>
-      <c r="I243" s="11"/>
-      <c r="J243" s="11"/>
-      <c r="K243" s="11"/>
-      <c r="L243" s="11"/>
-      <c r="M243" s="11"/>
-      <c r="N243" s="11"/>
-      <c r="O243" s="11"/>
-      <c r="P243" s="11"/>
-      <c r="Q243" s="11"/>
-      <c r="R243" s="11"/>
+      <c r="F243" s="10"/>
+      <c r="G243" s="10"/>
+      <c r="H243" s="10"/>
+      <c r="I243" s="10"/>
+      <c r="J243" s="10"/>
+      <c r="K243" s="10"/>
+      <c r="L243" s="10"/>
+      <c r="M243" s="10"/>
+      <c r="N243" s="10"/>
+      <c r="O243" s="10"/>
+      <c r="P243" s="10"/>
+      <c r="Q243" s="10"/>
+      <c r="R243" s="10"/>
     </row>
     <row r="244" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F244" s="11"/>
-      <c r="G244" s="11"/>
-      <c r="H244" s="11"/>
-      <c r="I244" s="11"/>
-      <c r="J244" s="11"/>
-      <c r="K244" s="11"/>
-      <c r="L244" s="11"/>
-      <c r="M244" s="11"/>
-      <c r="N244" s="11"/>
-      <c r="O244" s="11"/>
-      <c r="P244" s="11"/>
-      <c r="Q244" s="11"/>
-      <c r="R244" s="11"/>
+      <c r="F244" s="10"/>
+      <c r="G244" s="10"/>
+      <c r="H244" s="10"/>
+      <c r="I244" s="10"/>
+      <c r="J244" s="10"/>
+      <c r="K244" s="10"/>
+      <c r="L244" s="10"/>
+      <c r="M244" s="10"/>
+      <c r="N244" s="10"/>
+      <c r="O244" s="10"/>
+      <c r="P244" s="10"/>
+      <c r="Q244" s="10"/>
+      <c r="R244" s="10"/>
     </row>
     <row r="245" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F245" s="11"/>
-      <c r="G245" s="11"/>
-      <c r="H245" s="11"/>
-      <c r="I245" s="11"/>
-      <c r="J245" s="11"/>
-      <c r="K245" s="11"/>
-      <c r="L245" s="11"/>
-      <c r="M245" s="11"/>
-      <c r="N245" s="11"/>
-      <c r="O245" s="11"/>
-      <c r="P245" s="11"/>
-      <c r="Q245" s="11"/>
-      <c r="R245" s="11"/>
+      <c r="F245" s="10"/>
+      <c r="G245" s="10"/>
+      <c r="H245" s="10"/>
+      <c r="I245" s="10"/>
+      <c r="J245" s="10"/>
+      <c r="K245" s="10"/>
+      <c r="L245" s="10"/>
+      <c r="M245" s="10"/>
+      <c r="N245" s="10"/>
+      <c r="O245" s="10"/>
+      <c r="P245" s="10"/>
+      <c r="Q245" s="10"/>
+      <c r="R245" s="10"/>
     </row>
     <row r="246" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F246" s="11"/>
-      <c r="G246" s="11"/>
-      <c r="H246" s="11"/>
-      <c r="I246" s="11"/>
-      <c r="J246" s="11"/>
-      <c r="K246" s="11"/>
-      <c r="L246" s="11"/>
-      <c r="M246" s="11"/>
-      <c r="N246" s="11"/>
-      <c r="O246" s="11"/>
-      <c r="P246" s="11"/>
-      <c r="Q246" s="11"/>
-      <c r="R246" s="11"/>
+      <c r="F246" s="10"/>
+      <c r="G246" s="10"/>
+      <c r="H246" s="10"/>
+      <c r="I246" s="10"/>
+      <c r="J246" s="10"/>
+      <c r="K246" s="10"/>
+      <c r="L246" s="10"/>
+      <c r="M246" s="10"/>
+      <c r="N246" s="10"/>
+      <c r="O246" s="10"/>
+      <c r="P246" s="10"/>
+      <c r="Q246" s="10"/>
+      <c r="R246" s="10"/>
     </row>
     <row r="247" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F247" s="11"/>
-      <c r="G247" s="11"/>
-      <c r="H247" s="11"/>
-      <c r="I247" s="11"/>
-      <c r="J247" s="11"/>
-      <c r="K247" s="11"/>
-      <c r="L247" s="11"/>
-      <c r="M247" s="11"/>
-      <c r="N247" s="11"/>
-      <c r="O247" s="11"/>
-      <c r="P247" s="11"/>
-      <c r="Q247" s="11"/>
-      <c r="R247" s="11"/>
+      <c r="F247" s="10"/>
+      <c r="G247" s="10"/>
+      <c r="H247" s="10"/>
+      <c r="I247" s="10"/>
+      <c r="J247" s="10"/>
+      <c r="K247" s="10"/>
+      <c r="L247" s="10"/>
+      <c r="M247" s="10"/>
+      <c r="N247" s="10"/>
+      <c r="O247" s="10"/>
+      <c r="P247" s="10"/>
+      <c r="Q247" s="10"/>
+      <c r="R247" s="10"/>
     </row>
     <row r="248" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F248" s="11"/>
-      <c r="G248" s="11"/>
-      <c r="H248" s="11"/>
-      <c r="I248" s="11"/>
-      <c r="J248" s="11"/>
-      <c r="K248" s="11"/>
-      <c r="L248" s="11"/>
-      <c r="M248" s="11"/>
-      <c r="N248" s="11"/>
-      <c r="O248" s="11"/>
-      <c r="P248" s="11"/>
-      <c r="Q248" s="11"/>
-      <c r="R248" s="11"/>
+      <c r="F248" s="10"/>
+      <c r="G248" s="10"/>
+      <c r="H248" s="10"/>
+      <c r="I248" s="10"/>
+      <c r="J248" s="10"/>
+      <c r="K248" s="10"/>
+      <c r="L248" s="10"/>
+      <c r="M248" s="10"/>
+      <c r="N248" s="10"/>
+      <c r="O248" s="10"/>
+      <c r="P248" s="10"/>
+      <c r="Q248" s="10"/>
+      <c r="R248" s="10"/>
     </row>
     <row r="249" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F249" s="11"/>
-      <c r="G249" s="11"/>
-      <c r="H249" s="11"/>
-      <c r="I249" s="11"/>
-      <c r="J249" s="11"/>
-      <c r="K249" s="11"/>
-      <c r="L249" s="11"/>
-      <c r="M249" s="11"/>
-      <c r="N249" s="11"/>
-      <c r="O249" s="11"/>
-      <c r="P249" s="11"/>
-      <c r="Q249" s="11"/>
-      <c r="R249" s="11"/>
+      <c r="F249" s="10"/>
+      <c r="G249" s="10"/>
+      <c r="H249" s="10"/>
+      <c r="I249" s="10"/>
+      <c r="J249" s="10"/>
+      <c r="K249" s="10"/>
+      <c r="L249" s="10"/>
+      <c r="M249" s="10"/>
+      <c r="N249" s="10"/>
+      <c r="O249" s="10"/>
+      <c r="P249" s="10"/>
+      <c r="Q249" s="10"/>
+      <c r="R249" s="10"/>
     </row>
     <row r="250" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F250" s="11"/>
-      <c r="G250" s="11"/>
-      <c r="H250" s="11"/>
-      <c r="I250" s="11"/>
-      <c r="J250" s="11"/>
-      <c r="K250" s="11"/>
-      <c r="L250" s="11"/>
-      <c r="M250" s="11"/>
-      <c r="N250" s="11"/>
-      <c r="O250" s="11"/>
-      <c r="P250" s="11"/>
-      <c r="Q250" s="11"/>
-      <c r="R250" s="11"/>
+      <c r="F250" s="10"/>
+      <c r="G250" s="10"/>
+      <c r="H250" s="10"/>
+      <c r="I250" s="10"/>
+      <c r="J250" s="10"/>
+      <c r="K250" s="10"/>
+      <c r="L250" s="10"/>
+      <c r="M250" s="10"/>
+      <c r="N250" s="10"/>
+      <c r="O250" s="10"/>
+      <c r="P250" s="10"/>
+      <c r="Q250" s="10"/>
+      <c r="R250" s="10"/>
     </row>
     <row r="251" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F251" s="11"/>
-      <c r="G251" s="11"/>
-      <c r="H251" s="11"/>
-      <c r="I251" s="11"/>
-      <c r="J251" s="11"/>
-      <c r="K251" s="11"/>
-      <c r="L251" s="11"/>
-      <c r="M251" s="11"/>
-      <c r="N251" s="11"/>
-      <c r="O251" s="11"/>
-      <c r="P251" s="11"/>
-      <c r="Q251" s="11"/>
-      <c r="R251" s="11"/>
+      <c r="F251" s="10"/>
+      <c r="G251" s="10"/>
+      <c r="H251" s="10"/>
+      <c r="I251" s="10"/>
+      <c r="J251" s="10"/>
+      <c r="K251" s="10"/>
+      <c r="L251" s="10"/>
+      <c r="M251" s="10"/>
+      <c r="N251" s="10"/>
+      <c r="O251" s="10"/>
+      <c r="P251" s="10"/>
+      <c r="Q251" s="10"/>
+      <c r="R251" s="10"/>
     </row>
     <row r="252" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F252" s="11"/>
-      <c r="G252" s="11"/>
-      <c r="H252" s="11"/>
-      <c r="I252" s="11"/>
-      <c r="J252" s="11"/>
-      <c r="K252" s="11"/>
-      <c r="L252" s="11"/>
-      <c r="M252" s="11"/>
-      <c r="N252" s="11"/>
-      <c r="O252" s="11"/>
-      <c r="P252" s="11"/>
-      <c r="Q252" s="11"/>
-      <c r="R252" s="11"/>
+      <c r="F252" s="10"/>
+      <c r="G252" s="10"/>
+      <c r="H252" s="10"/>
+      <c r="I252" s="10"/>
+      <c r="J252" s="10"/>
+      <c r="K252" s="10"/>
+      <c r="L252" s="10"/>
+      <c r="M252" s="10"/>
+      <c r="N252" s="10"/>
+      <c r="O252" s="10"/>
+      <c r="P252" s="10"/>
+      <c r="Q252" s="10"/>
+      <c r="R252" s="10"/>
     </row>
     <row r="253" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F253" s="11"/>
-      <c r="G253" s="11"/>
-      <c r="H253" s="11"/>
-      <c r="I253" s="11"/>
-      <c r="J253" s="11"/>
-      <c r="K253" s="11"/>
-      <c r="L253" s="11"/>
-      <c r="M253" s="11"/>
-      <c r="N253" s="11"/>
-      <c r="O253" s="11"/>
-      <c r="P253" s="11"/>
-      <c r="Q253" s="11"/>
-      <c r="R253" s="11"/>
+      <c r="F253" s="10"/>
+      <c r="G253" s="10"/>
+      <c r="H253" s="10"/>
+      <c r="I253" s="10"/>
+      <c r="J253" s="10"/>
+      <c r="K253" s="10"/>
+      <c r="L253" s="10"/>
+      <c r="M253" s="10"/>
+      <c r="N253" s="10"/>
+      <c r="O253" s="10"/>
+      <c r="P253" s="10"/>
+      <c r="Q253" s="10"/>
+      <c r="R253" s="10"/>
     </row>
     <row r="254" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F254" s="11"/>
-      <c r="G254" s="11"/>
-      <c r="H254" s="11"/>
-      <c r="I254" s="11"/>
-      <c r="J254" s="11"/>
-      <c r="K254" s="11"/>
-      <c r="L254" s="11"/>
-      <c r="M254" s="11"/>
-      <c r="N254" s="11"/>
-      <c r="O254" s="11"/>
-      <c r="P254" s="11"/>
-      <c r="Q254" s="11"/>
-      <c r="R254" s="11"/>
+      <c r="F254" s="10"/>
+      <c r="G254" s="10"/>
+      <c r="H254" s="10"/>
+      <c r="I254" s="10"/>
+      <c r="J254" s="10"/>
+      <c r="K254" s="10"/>
+      <c r="L254" s="10"/>
+      <c r="M254" s="10"/>
+      <c r="N254" s="10"/>
+      <c r="O254" s="10"/>
+      <c r="P254" s="10"/>
+      <c r="Q254" s="10"/>
+      <c r="R254" s="10"/>
     </row>
     <row r="255" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F255" s="11"/>
-      <c r="G255" s="11"/>
-      <c r="H255" s="11"/>
-      <c r="I255" s="11"/>
-      <c r="J255" s="11"/>
-      <c r="K255" s="11"/>
-      <c r="L255" s="11"/>
-      <c r="M255" s="11"/>
-      <c r="N255" s="11"/>
-      <c r="O255" s="11"/>
-      <c r="P255" s="11"/>
-      <c r="Q255" s="11"/>
-      <c r="R255" s="11"/>
+      <c r="F255" s="10"/>
+      <c r="G255" s="10"/>
+      <c r="H255" s="10"/>
+      <c r="I255" s="10"/>
+      <c r="J255" s="10"/>
+      <c r="K255" s="10"/>
+      <c r="L255" s="10"/>
+      <c r="M255" s="10"/>
+      <c r="N255" s="10"/>
+      <c r="O255" s="10"/>
+      <c r="P255" s="10"/>
+      <c r="Q255" s="10"/>
+      <c r="R255" s="10"/>
     </row>
     <row r="256" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F256" s="11"/>
-      <c r="G256" s="11"/>
-      <c r="H256" s="11"/>
-      <c r="I256" s="11"/>
-      <c r="J256" s="11"/>
-      <c r="K256" s="11"/>
-      <c r="L256" s="11"/>
-      <c r="M256" s="11"/>
-      <c r="N256" s="11"/>
-      <c r="O256" s="11"/>
-      <c r="P256" s="11"/>
-      <c r="Q256" s="11"/>
+      <c r="F256" s="10"/>
+      <c r="G256" s="10"/>
+      <c r="H256" s="10"/>
+      <c r="I256" s="10"/>
+      <c r="J256" s="10"/>
+      <c r="K256" s="10"/>
+      <c r="L256" s="10"/>
+      <c r="M256" s="10"/>
+      <c r="N256" s="10"/>
+      <c r="O256" s="10"/>
+      <c r="P256" s="10"/>
+      <c r="Q256" s="10"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A228:E240">
@@ -19832,6 +19825,56 @@
   </mergeCells>
   <conditionalFormatting sqref="D2:D14">
     <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D133:D145">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H205:H218">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I205:I218">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J205:J218">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K205:K218">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19860,56 +19903,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D133:D145">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K205:K218">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J205:J218">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I205:I218">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H205:H218">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
